--- a/Kode/Server2/Logs/lora_node1/2020-05-27.xlsx
+++ b/Kode/Server2/Logs/lora_node1/2020-05-27.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F635"/>
+  <dimension ref="A1:F891"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4163,7 +4163,7 @@
         <v>0.015</v>
       </c>
       <c r="F190" t="n">
-        <v>2.94e-05</v>
+        <v>0.0294</v>
       </c>
     </row>
     <row r="191">
@@ -4203,7 +4203,7 @@
         <v>0.015</v>
       </c>
       <c r="F192" t="n">
-        <v>3.144e-05</v>
+        <v>0.03144</v>
       </c>
     </row>
     <row r="193">
@@ -4223,7 +4223,7 @@
         <v>0.015</v>
       </c>
       <c r="F193" t="n">
-        <v>3.246e-05</v>
+        <v>0.03246</v>
       </c>
     </row>
     <row r="194">
@@ -4243,7 +4243,7 @@
         <v>0.015</v>
       </c>
       <c r="F194" t="n">
-        <v>3.342e-05</v>
+        <v>0.03342000000000001</v>
       </c>
     </row>
     <row r="195">
@@ -4263,7 +4263,7 @@
         <v>0.015</v>
       </c>
       <c r="F195" t="n">
-        <v>3.432e-05</v>
+        <v>0.03432</v>
       </c>
     </row>
     <row r="196">
@@ -4283,7 +4283,7 @@
         <v>0.015</v>
       </c>
       <c r="F196" t="n">
-        <v>3.516e-05</v>
+        <v>0.03516</v>
       </c>
     </row>
     <row r="197">
@@ -4303,7 +4303,7 @@
         <v>0.03</v>
       </c>
       <c r="F197" t="n">
-        <v>7.211999999999999e-05</v>
+        <v>0.07211999999999999</v>
       </c>
     </row>
     <row r="198">
@@ -4323,7 +4323,7 @@
         <v>0.015</v>
       </c>
       <c r="F198" t="n">
-        <v>3.678e-05</v>
+        <v>0.03678</v>
       </c>
     </row>
     <row r="199">
@@ -4343,7 +4343,7 @@
         <v>0.03</v>
       </c>
       <c r="F199" t="n">
-        <v>7.415999999999999e-05</v>
+        <v>0.07415999999999999</v>
       </c>
     </row>
     <row r="200">
@@ -4363,7 +4363,7 @@
         <v>0.03</v>
       </c>
       <c r="F200" t="n">
-        <v>7.572e-05</v>
+        <v>0.07572</v>
       </c>
     </row>
     <row r="201">
@@ -4383,7 +4383,7 @@
         <v>0.03</v>
       </c>
       <c r="F201" t="n">
-        <v>7.728000000000001e-05</v>
+        <v>0.07728</v>
       </c>
     </row>
     <row r="202">
@@ -4403,7 +4403,7 @@
         <v>0.03</v>
       </c>
       <c r="F202" t="n">
-        <v>7.74e-05</v>
+        <v>0.0774</v>
       </c>
     </row>
     <row r="203">
@@ -4423,7 +4423,7 @@
         <v>0.075</v>
       </c>
       <c r="F203" t="n">
-        <v>0.0001812</v>
+        <v>0.1812</v>
       </c>
     </row>
     <row r="204">
@@ -4443,7 +4443,7 @@
         <v>0.09</v>
       </c>
       <c r="F204" t="n">
-        <v>0.00021204</v>
+        <v>0.21204</v>
       </c>
     </row>
     <row r="205">
@@ -4463,7 +4463,7 @@
         <v>0.105</v>
       </c>
       <c r="F205" t="n">
-        <v>0.00024612</v>
+        <v>0.24612</v>
       </c>
     </row>
     <row r="206">
@@ -4483,7 +4483,7 @@
         <v>0.135</v>
       </c>
       <c r="F206" t="n">
-        <v>0.0003078000000000001</v>
+        <v>0.3078000000000001</v>
       </c>
     </row>
     <row r="207">
@@ -4503,7 +4503,7 @@
         <v>0.12</v>
       </c>
       <c r="F207" t="n">
-        <v>0.00027648</v>
+        <v>0.27648</v>
       </c>
     </row>
     <row r="208">
@@ -4523,7 +4523,7 @@
         <v>0.135</v>
       </c>
       <c r="F208" t="n">
-        <v>0.0003132</v>
+        <v>0.3132</v>
       </c>
     </row>
     <row r="209">
@@ -4543,7 +4543,7 @@
         <v>0.15</v>
       </c>
       <c r="F209" t="n">
-        <v>0.0003438000000000001</v>
+        <v>0.3438000000000001</v>
       </c>
     </row>
     <row r="210">
@@ -4563,7 +4563,7 @@
         <v>0.15</v>
       </c>
       <c r="F210" t="n">
-        <v>0.0003426</v>
+        <v>0.3426</v>
       </c>
     </row>
     <row r="211">
@@ -4583,7 +4583,7 @@
         <v>0.165</v>
       </c>
       <c r="F211" t="n">
-        <v>0.00038016</v>
+        <v>0.38016</v>
       </c>
     </row>
     <row r="212">
@@ -4603,7 +4603,7 @@
         <v>0.18</v>
       </c>
       <c r="F212" t="n">
-        <v>0.0004111200000000001</v>
+        <v>0.4111200000000001</v>
       </c>
     </row>
     <row r="213">
@@ -4623,7 +4623,7 @@
         <v>0.195</v>
       </c>
       <c r="F213" t="n">
-        <v>0.0004352400000000001</v>
+        <v>0.4352400000000001</v>
       </c>
     </row>
     <row r="214">
@@ -4643,7 +4643,7 @@
         <v>0.21</v>
       </c>
       <c r="F214" t="n">
-        <v>0.00046284</v>
+        <v>0.46284</v>
       </c>
     </row>
     <row r="215">
@@ -4663,7 +4663,7 @@
         <v>0.21</v>
       </c>
       <c r="F215" t="n">
-        <v>0.00048216</v>
+        <v>0.48216</v>
       </c>
     </row>
     <row r="216">
@@ -4683,7 +4683,7 @@
         <v>0.225</v>
       </c>
       <c r="F216" t="n">
-        <v>0.0005003999999999999</v>
+        <v>0.5004</v>
       </c>
     </row>
     <row r="217">
@@ -4703,7 +4703,7 @@
         <v>0.24</v>
       </c>
       <c r="F217" t="n">
-        <v>0.00054144</v>
+        <v>0.54144</v>
       </c>
     </row>
     <row r="218">
@@ -4723,7 +4723,7 @@
         <v>0.255</v>
       </c>
       <c r="F218" t="n">
-        <v>0.0005834400000000001</v>
+        <v>0.5834400000000001</v>
       </c>
     </row>
     <row r="219">
@@ -4743,7 +4743,7 @@
         <v>0.255</v>
       </c>
       <c r="F219" t="n">
-        <v>0.00057018</v>
+        <v>0.57018</v>
       </c>
     </row>
     <row r="220">
@@ -4763,7 +4763,7 @@
         <v>0.285</v>
       </c>
       <c r="F220" t="n">
-        <v>0.00064752</v>
+        <v>0.64752</v>
       </c>
     </row>
     <row r="221">
@@ -4783,7 +4783,7 @@
         <v>0.3</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0006768000000000001</v>
+        <v>0.6768000000000001</v>
       </c>
     </row>
     <row r="222">
@@ -4803,7 +4803,7 @@
         <v>0.3</v>
       </c>
       <c r="F222" t="n">
-        <v>0.000684</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="223">
@@ -4823,7 +4823,7 @@
         <v>0.315</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0007119000000000001</v>
+        <v>0.7119000000000001</v>
       </c>
     </row>
     <row r="224">
@@ -4843,7 +4843,7 @@
         <v>0.33</v>
       </c>
       <c r="F224" t="n">
-        <v>0.00073656</v>
+        <v>0.73656</v>
       </c>
     </row>
     <row r="225">
@@ -4863,7 +4863,7 @@
         <v>0.345</v>
       </c>
       <c r="F225" t="n">
-        <v>0.00078522</v>
+        <v>0.78522</v>
       </c>
     </row>
     <row r="226">
@@ -4883,7 +4883,7 @@
         <v>0.36</v>
       </c>
       <c r="F226" t="n">
-        <v>0.0008136000000000002</v>
+        <v>0.8136000000000001</v>
       </c>
     </row>
     <row r="227">
@@ -4903,7 +4903,7 @@
         <v>0.39</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0008751600000000002</v>
+        <v>0.8751600000000002</v>
       </c>
     </row>
     <row r="228">
@@ -4923,7 +4923,7 @@
         <v>0.39</v>
       </c>
       <c r="F228" t="n">
-        <v>0.0008782800000000002</v>
+        <v>0.8782800000000002</v>
       </c>
     </row>
     <row r="229">
@@ -4943,7 +4943,7 @@
         <v>0.405</v>
       </c>
       <c r="F229" t="n">
-        <v>0.00091044</v>
+        <v>0.91044</v>
       </c>
     </row>
     <row r="230">
@@ -4963,7 +4963,7 @@
         <v>0.435</v>
       </c>
       <c r="F230" t="n">
-        <v>0.0009657000000000001</v>
+        <v>0.9657000000000001</v>
       </c>
     </row>
     <row r="231">
@@ -4983,7 +4983,7 @@
         <v>0.435</v>
       </c>
       <c r="F231" t="n">
-        <v>0.0009709200000000001</v>
+        <v>0.9709200000000001</v>
       </c>
     </row>
     <row r="232">
@@ -5003,7 +5003,7 @@
         <v>0.45</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0010224</v>
+        <v>1.0224</v>
       </c>
     </row>
     <row r="233">
@@ -5023,7 +5023,7 @@
         <v>0.48</v>
       </c>
       <c r="F233" t="n">
-        <v>0.00104256</v>
+        <v>1.04256</v>
       </c>
     </row>
     <row r="234">
@@ -5043,7 +5043,7 @@
         <v>0.48</v>
       </c>
       <c r="F234" t="n">
-        <v>0.00108096</v>
+        <v>1.08096</v>
       </c>
     </row>
     <row r="235">
@@ -5063,7 +5063,7 @@
         <v>0.495</v>
       </c>
       <c r="F235" t="n">
-        <v>0.0011187</v>
+        <v>1.1187</v>
       </c>
     </row>
     <row r="236">
@@ -5083,7 +5083,7 @@
         <v>0.51</v>
       </c>
       <c r="F236" t="n">
-        <v>0.00114444</v>
+        <v>1.14444</v>
       </c>
     </row>
     <row r="237">
@@ -5103,7 +5103,7 @@
         <v>0.54</v>
       </c>
       <c r="F237" t="n">
-        <v>0.00120312</v>
+        <v>1.20312</v>
       </c>
     </row>
     <row r="238">
@@ -5123,7 +5123,7 @@
         <v>0.57</v>
       </c>
       <c r="F238" t="n">
-        <v>0.00126312</v>
+        <v>1.26312</v>
       </c>
     </row>
     <row r="239">
@@ -5143,7 +5143,7 @@
         <v>0.6</v>
       </c>
       <c r="F239" t="n">
-        <v>0.0013536</v>
+        <v>1.3536</v>
       </c>
     </row>
     <row r="240">
@@ -5163,7 +5163,7 @@
         <v>0.615</v>
       </c>
       <c r="F240" t="n">
-        <v>0.00137514</v>
+        <v>1.37514</v>
       </c>
     </row>
     <row r="241">
@@ -5183,7 +5183,7 @@
         <v>0.6749999999999999</v>
       </c>
       <c r="F241" t="n">
-        <v>0.0014715</v>
+        <v>1.4715</v>
       </c>
     </row>
     <row r="242">
@@ -5203,7 +5203,7 @@
         <v>0.72</v>
       </c>
       <c r="F242" t="n">
-        <v>0.00160992</v>
+        <v>1.60992</v>
       </c>
     </row>
     <row r="243">
@@ -5223,7 +5223,7 @@
         <v>0.75</v>
       </c>
       <c r="F243" t="n">
-        <v>0.001659</v>
+        <v>1.659</v>
       </c>
     </row>
     <row r="244">
@@ -5243,7 +5243,7 @@
         <v>0.75</v>
       </c>
       <c r="F244" t="n">
-        <v>0.001641</v>
+        <v>1.641</v>
       </c>
     </row>
     <row r="245">
@@ -5263,7 +5263,7 @@
         <v>0.75</v>
       </c>
       <c r="F245" t="n">
-        <v>0.001626</v>
+        <v>1.626</v>
       </c>
     </row>
     <row r="246">
@@ -5283,7 +5283,7 @@
         <v>0.765</v>
       </c>
       <c r="F246" t="n">
-        <v>0.00167382</v>
+        <v>1.67382</v>
       </c>
     </row>
     <row r="247">
@@ -5303,7 +5303,7 @@
         <v>0.765</v>
       </c>
       <c r="F247" t="n">
-        <v>0.00166158</v>
+        <v>1.66158</v>
       </c>
     </row>
     <row r="248">
@@ -5323,7 +5323,7 @@
         <v>0.78</v>
       </c>
       <c r="F248" t="n">
-        <v>0.00173472</v>
+        <v>1.73472</v>
       </c>
     </row>
     <row r="249">
@@ -5343,7 +5343,7 @@
         <v>0.8099999999999999</v>
       </c>
       <c r="F249" t="n">
-        <v>0.00182736</v>
+        <v>1.82736</v>
       </c>
     </row>
     <row r="250">
@@ -5363,7 +5363,7 @@
         <v>0.84</v>
       </c>
       <c r="F250" t="n">
-        <v>0.00187824</v>
+        <v>1.87824</v>
       </c>
     </row>
     <row r="251">
@@ -5383,7 +5383,7 @@
         <v>0.87</v>
       </c>
       <c r="F251" t="n">
-        <v>0.00195576</v>
+        <v>1.95576</v>
       </c>
     </row>
     <row r="252">
@@ -5403,7 +5403,7 @@
         <v>0.885</v>
       </c>
       <c r="F252" t="n">
-        <v>0.00197178</v>
+        <v>1.97178</v>
       </c>
     </row>
     <row r="253">
@@ -5423,7 +5423,7 @@
         <v>0.9149999999999999</v>
       </c>
       <c r="F253" t="n">
-        <v>0.00200934</v>
+        <v>2.00934</v>
       </c>
     </row>
     <row r="254">
@@ -5443,7 +5443,7 @@
         <v>0.945</v>
       </c>
       <c r="F254" t="n">
-        <v>0.00204498</v>
+        <v>2.04498</v>
       </c>
     </row>
     <row r="255">
@@ -5463,7 +5463,7 @@
         <v>0.96</v>
       </c>
       <c r="F255" t="n">
-        <v>0.0021504</v>
+        <v>2.1504</v>
       </c>
     </row>
     <row r="256">
@@ -5483,7 +5483,7 @@
         <v>1.005</v>
       </c>
       <c r="F256" t="n">
-        <v>0.00221502</v>
+        <v>2.21502</v>
       </c>
     </row>
     <row r="257">
@@ -5503,7 +5503,7 @@
         <v>1.05</v>
       </c>
       <c r="F257" t="n">
-        <v>0.002322600000000001</v>
+        <v>2.322600000000001</v>
       </c>
     </row>
     <row r="258">
@@ -5523,7 +5523,7 @@
         <v>1.08</v>
       </c>
       <c r="F258" t="n">
-        <v>0.00236736</v>
+        <v>2.36736</v>
       </c>
     </row>
     <row r="259">
@@ -5543,7 +5543,7 @@
         <v>1.08</v>
       </c>
       <c r="F259" t="n">
-        <v>0.00228528</v>
+        <v>2.28528</v>
       </c>
     </row>
     <row r="260">
@@ -5563,7 +5563,7 @@
         <v>1.08</v>
       </c>
       <c r="F260" t="n">
-        <v>0.00234576</v>
+        <v>2.34576</v>
       </c>
     </row>
     <row r="261">
@@ -5583,7 +5583,7 @@
         <v>1.065</v>
       </c>
       <c r="F261" t="n">
-        <v>0.00236004</v>
+        <v>2.36004</v>
       </c>
     </row>
     <row r="262">
@@ -5603,7 +5603,7 @@
         <v>1.095</v>
       </c>
       <c r="F262" t="n">
-        <v>0.002395860000000001</v>
+        <v>2.395860000000001</v>
       </c>
     </row>
     <row r="263">
@@ -5623,7 +5623,7 @@
         <v>1.14</v>
       </c>
       <c r="F263" t="n">
-        <v>0.00254904</v>
+        <v>2.54904</v>
       </c>
     </row>
     <row r="264">
@@ -5643,7 +5643,7 @@
         <v>1.23</v>
       </c>
       <c r="F264" t="n">
-        <v>0.0026814</v>
+        <v>2.6814</v>
       </c>
     </row>
     <row r="265">
@@ -5663,7 +5663,7 @@
         <v>1.32</v>
       </c>
       <c r="F265" t="n">
-        <v>0.00289344</v>
+        <v>2.89344</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5683,7 @@
         <v>1.365</v>
       </c>
       <c r="F266" t="n">
-        <v>0.00299754</v>
+        <v>2.99754</v>
       </c>
     </row>
     <row r="267">
@@ -5703,7 +5703,7 @@
         <v>1.485</v>
       </c>
       <c r="F267" t="n">
-        <v>0.00302346</v>
+        <v>3.02346</v>
       </c>
     </row>
     <row r="268">
@@ -5723,7 +5723,7 @@
         <v>1.605</v>
       </c>
       <c r="F268" t="n">
-        <v>0.0029532</v>
+        <v>2.9532</v>
       </c>
     </row>
     <row r="269">
@@ -5743,7 +5743,7 @@
         <v>1.725</v>
       </c>
       <c r="F269" t="n">
-        <v>0.0032361</v>
+        <v>3.2361</v>
       </c>
     </row>
     <row r="270">
@@ -5763,7 +5763,7 @@
         <v>1.725</v>
       </c>
       <c r="F270" t="n">
-        <v>0.0032361</v>
+        <v>3.2361</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5783,7 @@
         <v>1.635</v>
       </c>
       <c r="F271" t="n">
-        <v>0.00302802</v>
+        <v>3.02802</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>1.56</v>
       </c>
       <c r="F272" t="n">
-        <v>0.00284544</v>
+        <v>2.84544</v>
       </c>
     </row>
     <row r="273">
@@ -5823,7 +5823,7 @@
         <v>1.53</v>
       </c>
       <c r="F273" t="n">
-        <v>0.00276624</v>
+        <v>2.76624</v>
       </c>
     </row>
     <row r="274">
@@ -5843,7 +5843,7 @@
         <v>1.485</v>
       </c>
       <c r="F274" t="n">
-        <v>0.0031482</v>
+        <v>3.1482</v>
       </c>
     </row>
     <row r="275">
@@ -5863,7 +5863,7 @@
         <v>1.515</v>
       </c>
       <c r="F275" t="n">
-        <v>0.00289668</v>
+        <v>2.89668</v>
       </c>
     </row>
     <row r="276">
@@ -5883,7 +5883,7 @@
         <v>1.56</v>
       </c>
       <c r="F276" t="n">
-        <v>0.00285168</v>
+        <v>2.85168</v>
       </c>
     </row>
     <row r="277">
@@ -5903,7 +5903,7 @@
         <v>1.62</v>
       </c>
       <c r="F277" t="n">
-        <v>0.00298728</v>
+        <v>2.98728</v>
       </c>
     </row>
     <row r="278">
@@ -5923,7 +5923,7 @@
         <v>1.695</v>
       </c>
       <c r="F278" t="n">
-        <v>0.00315948</v>
+        <v>3.15948</v>
       </c>
     </row>
     <row r="279">
@@ -5943,7 +5943,7 @@
         <v>1.86</v>
       </c>
       <c r="F279" t="n">
-        <v>0.00357864</v>
+        <v>3.57864</v>
       </c>
     </row>
     <row r="280">
@@ -5963,7 +5963,7 @@
         <v>2.085</v>
       </c>
       <c r="F280" t="n">
-        <v>0.00416166</v>
+        <v>4.16166</v>
       </c>
     </row>
     <row r="281">
@@ -5983,7 +5983,7 @@
         <v>2.22</v>
       </c>
       <c r="F281" t="n">
-        <v>0.00450216</v>
+        <v>4.50216</v>
       </c>
     </row>
     <row r="282">
@@ -6003,7 +6003,7 @@
         <v>2.325</v>
       </c>
       <c r="F282" t="n">
-        <v>0.0047523</v>
+        <v>4.7523</v>
       </c>
     </row>
     <row r="283">
@@ -6023,7 +6023,7 @@
         <v>2.34</v>
       </c>
       <c r="F283" t="n">
-        <v>0.00480168</v>
+        <v>4.80168</v>
       </c>
     </row>
     <row r="284">
@@ -6043,7 +6043,7 @@
         <v>2.205</v>
       </c>
       <c r="F284" t="n">
-        <v>0.00447174</v>
+        <v>4.47174</v>
       </c>
     </row>
     <row r="285">
@@ -6063,7 +6063,7 @@
         <v>2.1</v>
       </c>
       <c r="F285" t="n">
-        <v>0.0042252</v>
+        <v>4.2252</v>
       </c>
     </row>
     <row r="286">
@@ -6083,7 +6083,7 @@
         <v>2.115</v>
       </c>
       <c r="F286" t="n">
-        <v>0.00425538</v>
+        <v>4.25538</v>
       </c>
     </row>
     <row r="287">
@@ -6103,7 +6103,7 @@
         <v>2.16</v>
       </c>
       <c r="F287" t="n">
-        <v>0.0043632</v>
+        <v>4.3632</v>
       </c>
     </row>
     <row r="288">
@@ -6123,7 +6123,7 @@
         <v>2.22</v>
       </c>
       <c r="F288" t="n">
-        <v>0.00451992</v>
+        <v>4.51992</v>
       </c>
     </row>
     <row r="289">
@@ -6143,7 +6143,7 @@
         <v>2.28</v>
       </c>
       <c r="F289" t="n">
-        <v>0.004632959999999999</v>
+        <v>4.63296</v>
       </c>
     </row>
     <row r="290">
@@ -6163,7 +6163,7 @@
         <v>2.295</v>
       </c>
       <c r="F290" t="n">
-        <v>0.00466344</v>
+        <v>4.66344</v>
       </c>
     </row>
     <row r="291">
@@ -6183,7 +6183,7 @@
         <v>2.235</v>
       </c>
       <c r="F291" t="n">
-        <v>0.00454152</v>
+        <v>4.54152</v>
       </c>
     </row>
     <row r="292">
@@ -6203,7 +6203,7 @@
         <v>2.19</v>
       </c>
       <c r="F292" t="n">
-        <v>0.004432559999999999</v>
+        <v>4.432559999999999</v>
       </c>
     </row>
     <row r="293">
@@ -6223,7 +6223,7 @@
         <v>2.175</v>
       </c>
       <c r="F293" t="n">
-        <v>0.0044109</v>
+        <v>4.4109</v>
       </c>
     </row>
     <row r="294">
@@ -6243,7 +6243,7 @@
         <v>2.205</v>
       </c>
       <c r="F294" t="n">
-        <v>0.00448938</v>
+        <v>4.489380000000001</v>
       </c>
     </row>
     <row r="295">
@@ -6263,7 +6263,7 @@
         <v>2.235</v>
       </c>
       <c r="F295" t="n">
-        <v>0.00455046</v>
+        <v>4.55046</v>
       </c>
     </row>
     <row r="296">
@@ -6283,7 +6283,7 @@
         <v>2.31</v>
       </c>
       <c r="F296" t="n">
-        <v>0.00470316</v>
+        <v>4.70316</v>
       </c>
     </row>
     <row r="297">
@@ -6303,7 +6303,7 @@
         <v>2.325</v>
       </c>
       <c r="F297" t="n">
-        <v>0.0047802</v>
+        <v>4.7802</v>
       </c>
     </row>
     <row r="298">
@@ -6323,7 +6323,7 @@
         <v>2.385</v>
       </c>
       <c r="F298" t="n">
-        <v>0.004865399999999999</v>
+        <v>4.865399999999999</v>
       </c>
     </row>
     <row r="299">
@@ -6343,7 +6343,7 @@
         <v>2.46</v>
       </c>
       <c r="F299" t="n">
-        <v>0.00505776</v>
+        <v>5.05776</v>
       </c>
     </row>
     <row r="300">
@@ -6363,7 +6363,7 @@
         <v>2.595</v>
       </c>
       <c r="F300" t="n">
-        <v>0.00536646</v>
+        <v>5.36646</v>
       </c>
     </row>
     <row r="301">
@@ -6383,7 +6383,7 @@
         <v>2.655</v>
       </c>
       <c r="F301" t="n">
-        <v>0.00553302</v>
+        <v>5.53302</v>
       </c>
     </row>
     <row r="302">
@@ -6403,7 +6403,7 @@
         <v>2.79</v>
       </c>
       <c r="F302" t="n">
-        <v>0.005814360000000001</v>
+        <v>5.814360000000001</v>
       </c>
     </row>
     <row r="303">
@@ -6423,7 +6423,7 @@
         <v>2.925</v>
       </c>
       <c r="F303" t="n">
-        <v>0.0061542</v>
+        <v>6.1542</v>
       </c>
     </row>
     <row r="304">
@@ -6443,7 +6443,7 @@
         <v>3.06</v>
       </c>
       <c r="F304" t="n">
-        <v>0.00649944</v>
+        <v>6.499440000000001</v>
       </c>
     </row>
     <row r="305">
@@ -6463,7 +6463,7 @@
         <v>3.165</v>
       </c>
       <c r="F305" t="n">
-        <v>0.00669714</v>
+        <v>6.69714</v>
       </c>
     </row>
     <row r="306">
@@ -6483,7 +6483,7 @@
         <v>3.135</v>
       </c>
       <c r="F306" t="n">
-        <v>0.00657096</v>
+        <v>6.570959999999999</v>
       </c>
     </row>
     <row r="307">
@@ -6503,7 +6503,7 @@
         <v>3.075</v>
       </c>
       <c r="F307" t="n">
-        <v>0.006543599999999999</v>
+        <v>6.5436</v>
       </c>
     </row>
     <row r="308">
@@ -6523,7 +6523,7 @@
         <v>3.105</v>
       </c>
       <c r="F308" t="n">
-        <v>0.0065205</v>
+        <v>6.5205</v>
       </c>
     </row>
     <row r="309">
@@ -6543,7 +6543,7 @@
         <v>3.225</v>
       </c>
       <c r="F309" t="n">
-        <v>0.0068628</v>
+        <v>6.8628</v>
       </c>
     </row>
     <row r="310">
@@ -6563,7 +6563,7 @@
         <v>3.405</v>
       </c>
       <c r="F310" t="n">
-        <v>0.00719136</v>
+        <v>7.19136</v>
       </c>
     </row>
     <row r="311">
@@ -6583,7 +6583,7 @@
         <v>3.555</v>
       </c>
       <c r="F311" t="n">
-        <v>0.00750816</v>
+        <v>7.50816</v>
       </c>
     </row>
     <row r="312">
@@ -6603,7 +6603,7 @@
         <v>3.57</v>
       </c>
       <c r="F312" t="n">
-        <v>0.00762552</v>
+        <v>7.62552</v>
       </c>
     </row>
     <row r="313">
@@ -6623,7 +6623,7 @@
         <v>3.555</v>
       </c>
       <c r="F313" t="n">
-        <v>0.007565039999999999</v>
+        <v>7.565039999999999</v>
       </c>
     </row>
     <row r="314">
@@ -6643,7 +6643,7 @@
         <v>3.525</v>
       </c>
       <c r="F314" t="n">
-        <v>0.0075435</v>
+        <v>7.5435</v>
       </c>
     </row>
     <row r="315">
@@ -6663,7 +6663,7 @@
         <v>3.51</v>
       </c>
       <c r="F315" t="n">
-        <v>0.00749736</v>
+        <v>7.49736</v>
       </c>
     </row>
     <row r="316">
@@ -6683,7 +6683,7 @@
         <v>3.585</v>
       </c>
       <c r="F316" t="n">
-        <v>0.00768624</v>
+        <v>7.686240000000001</v>
       </c>
     </row>
     <row r="317">
@@ -6703,7 +6703,7 @@
         <v>3.825</v>
       </c>
       <c r="F317" t="n">
-        <v>0.008109</v>
+        <v>8.109</v>
       </c>
     </row>
     <row r="318">
@@ -6723,7 +6723,7 @@
         <v>4.245</v>
       </c>
       <c r="F318" t="n">
-        <v>0.009135240000000001</v>
+        <v>9.135240000000001</v>
       </c>
     </row>
     <row r="319">
@@ -6743,7 +6743,7 @@
         <v>4.665</v>
       </c>
       <c r="F319" t="n">
-        <v>0.0100764</v>
+        <v>10.0764</v>
       </c>
     </row>
     <row r="320">
@@ -6763,7 +6763,7 @@
         <v>4.694999999999999</v>
       </c>
       <c r="F320" t="n">
-        <v>0.009953399999999998</v>
+        <v>9.953399999999998</v>
       </c>
     </row>
     <row r="321">
@@ -6783,7 +6783,7 @@
         <v>4.32</v>
       </c>
       <c r="F321" t="n">
-        <v>0.009210240000000001</v>
+        <v>9.210240000000001</v>
       </c>
     </row>
     <row r="322">
@@ -6803,7 +6803,7 @@
         <v>3.87</v>
       </c>
       <c r="F322" t="n">
-        <v>0.008080560000000001</v>
+        <v>8.08056</v>
       </c>
     </row>
     <row r="323">
@@ -6823,7 +6823,7 @@
         <v>3.645</v>
       </c>
       <c r="F323" t="n">
-        <v>0.007741980000000001</v>
+        <v>7.741980000000001</v>
       </c>
     </row>
     <row r="324">
@@ -6843,7 +6843,7 @@
         <v>3.675</v>
       </c>
       <c r="F324" t="n">
-        <v>0.0077763</v>
+        <v>7.7763</v>
       </c>
     </row>
     <row r="325">
@@ -6863,7 +6863,7 @@
         <v>3.735</v>
       </c>
       <c r="F325" t="n">
-        <v>0.007888320000000001</v>
+        <v>7.888320000000001</v>
       </c>
     </row>
     <row r="326">
@@ -6883,7 +6883,7 @@
         <v>3.705</v>
       </c>
       <c r="F326" t="n">
-        <v>0.00786942</v>
+        <v>7.86942</v>
       </c>
     </row>
     <row r="327">
@@ -6903,7 +6903,7 @@
         <v>3.825</v>
       </c>
       <c r="F327" t="n">
-        <v>0.0081396</v>
+        <v>8.1396</v>
       </c>
     </row>
     <row r="328">
@@ -6923,7 +6923,7 @@
         <v>4.17</v>
       </c>
       <c r="F328" t="n">
-        <v>0.008923799999999999</v>
+        <v>8.9238</v>
       </c>
     </row>
     <row r="329">
@@ -6943,7 +6943,7 @@
         <v>4.815</v>
       </c>
       <c r="F329" t="n">
-        <v>0.0103041</v>
+        <v>10.3041</v>
       </c>
     </row>
     <row r="330">
@@ -6963,7 +6963,7 @@
         <v>5.46</v>
       </c>
       <c r="F330" t="n">
-        <v>0.01170624</v>
+        <v>11.70624</v>
       </c>
     </row>
     <row r="331">
@@ -6983,7 +6983,7 @@
         <v>5.685</v>
       </c>
       <c r="F331" t="n">
-        <v>0.0120522</v>
+        <v>12.0522</v>
       </c>
     </row>
     <row r="332">
@@ -7003,7 +7003,7 @@
         <v>5.609999999999999</v>
       </c>
       <c r="F332" t="n">
-        <v>0.01196052</v>
+        <v>11.96052</v>
       </c>
     </row>
     <row r="333">
@@ -7023,7 +7023,7 @@
         <v>5.37</v>
       </c>
       <c r="F333" t="n">
-        <v>0.01151328</v>
+        <v>11.51328</v>
       </c>
     </row>
     <row r="334">
@@ -7043,7 +7043,7 @@
         <v>5.115</v>
       </c>
       <c r="F334" t="n">
-        <v>0.01090518</v>
+        <v>10.90518</v>
       </c>
     </row>
     <row r="335">
@@ -7063,7 +7063,7 @@
         <v>5.295</v>
       </c>
       <c r="F335" t="n">
-        <v>0.0112254</v>
+        <v>11.2254</v>
       </c>
     </row>
     <row r="336">
@@ -7083,7 +7083,7 @@
         <v>5.609999999999999</v>
       </c>
       <c r="F336" t="n">
-        <v>0.0120054</v>
+        <v>12.0054</v>
       </c>
     </row>
     <row r="337">
@@ -7103,7 +7103,7 @@
         <v>5.79</v>
       </c>
       <c r="F337" t="n">
-        <v>0.01236744</v>
+        <v>12.36744</v>
       </c>
     </row>
     <row r="338">
@@ -7123,7 +7123,7 @@
         <v>5.609999999999999</v>
       </c>
       <c r="F338" t="n">
-        <v>0.01202784</v>
+        <v>12.02784</v>
       </c>
     </row>
     <row r="339">
@@ -7143,7 +7143,7 @@
         <v>5.22</v>
       </c>
       <c r="F339" t="n">
-        <v>0.010962</v>
+        <v>10.962</v>
       </c>
     </row>
     <row r="340">
@@ -7163,7 +7163,7 @@
         <v>4.89</v>
       </c>
       <c r="F340" t="n">
-        <v>0.01048416</v>
+        <v>10.48416</v>
       </c>
     </row>
     <row r="341">
@@ -7183,7 +7183,7 @@
         <v>4.53</v>
       </c>
       <c r="F341" t="n">
-        <v>0.009639840000000002</v>
+        <v>9.639840000000001</v>
       </c>
     </row>
     <row r="342">
@@ -7203,7 +7203,7 @@
         <v>4.005</v>
       </c>
       <c r="F342" t="n">
-        <v>0.00853866</v>
+        <v>8.53866</v>
       </c>
     </row>
     <row r="343">
@@ -7223,7 +7223,7 @@
         <v>3.555</v>
       </c>
       <c r="F343" t="n">
-        <v>0.0075366</v>
+        <v>7.5366</v>
       </c>
     </row>
     <row r="344">
@@ -7243,7 +7243,7 @@
         <v>3.375</v>
       </c>
       <c r="F344" t="n">
-        <v>0.007155</v>
+        <v>7.155</v>
       </c>
     </row>
     <row r="345">
@@ -7263,7 +7263,7 @@
         <v>3.48</v>
       </c>
       <c r="F345" t="n">
-        <v>0.00739152</v>
+        <v>7.391520000000001</v>
       </c>
     </row>
     <row r="346">
@@ -7283,7 +7283,7 @@
         <v>3.675</v>
       </c>
       <c r="F346" t="n">
-        <v>0.0077175</v>
+        <v>7.7175</v>
       </c>
     </row>
     <row r="347">
@@ -7303,7 +7303,7 @@
         <v>3.81</v>
       </c>
       <c r="F347" t="n">
-        <v>0.00804672</v>
+        <v>8.046720000000001</v>
       </c>
     </row>
     <row r="348">
@@ -7323,7 +7323,7 @@
         <v>3.99</v>
       </c>
       <c r="F348" t="n">
-        <v>0.0086184</v>
+        <v>8.618399999999999</v>
       </c>
     </row>
     <row r="349">
@@ -7343,7 +7343,7 @@
         <v>4.215</v>
       </c>
       <c r="F349" t="n">
-        <v>0.008969520000000002</v>
+        <v>8.969520000000001</v>
       </c>
     </row>
     <row r="350">
@@ -7363,7 +7363,7 @@
         <v>4.41</v>
       </c>
       <c r="F350" t="n">
-        <v>0.009366840000000001</v>
+        <v>9.366840000000002</v>
       </c>
     </row>
     <row r="351">
@@ -7383,7 +7383,7 @@
         <v>4.38</v>
       </c>
       <c r="F351" t="n">
-        <v>0.00918048</v>
+        <v>9.180479999999999</v>
       </c>
     </row>
     <row r="352">
@@ -7403,7 +7403,7 @@
         <v>4.155</v>
       </c>
       <c r="F352" t="n">
-        <v>0.00895818</v>
+        <v>8.95818</v>
       </c>
     </row>
     <row r="353">
@@ -7423,7 +7423,7 @@
         <v>3.99</v>
       </c>
       <c r="F353" t="n">
-        <v>0.008458800000000001</v>
+        <v>8.4588</v>
       </c>
     </row>
     <row r="354">
@@ -7443,7 +7443,7 @@
         <v>3.93</v>
       </c>
       <c r="F354" t="n">
-        <v>0.0084102</v>
+        <v>8.4102</v>
       </c>
     </row>
     <row r="355">
@@ -7463,7 +7463,7 @@
         <v>3.93</v>
       </c>
       <c r="F355" t="n">
-        <v>0.008394479999999999</v>
+        <v>8.39448</v>
       </c>
     </row>
     <row r="356">
@@ -7483,7 +7483,7 @@
         <v>3.96</v>
       </c>
       <c r="F356" t="n">
-        <v>0.00849024</v>
+        <v>8.49024</v>
       </c>
     </row>
     <row r="357">
@@ -7503,7 +7503,7 @@
         <v>4.035</v>
       </c>
       <c r="F357" t="n">
-        <v>0.008521920000000002</v>
+        <v>8.521920000000001</v>
       </c>
     </row>
     <row r="358">
@@ -7523,7 +7523,7 @@
         <v>4.05</v>
       </c>
       <c r="F358" t="n">
-        <v>0.008586</v>
+        <v>8.586</v>
       </c>
     </row>
     <row r="359">
@@ -7543,7 +7543,7 @@
         <v>4.005</v>
       </c>
       <c r="F359" t="n">
-        <v>0.00861876</v>
+        <v>8.61876</v>
       </c>
     </row>
     <row r="360">
@@ -7563,7 +7563,7 @@
         <v>3.87</v>
       </c>
       <c r="F360" t="n">
-        <v>0.008343719999999999</v>
+        <v>8.343719999999999</v>
       </c>
     </row>
     <row r="361">
@@ -7583,7 +7583,7 @@
         <v>3.69</v>
       </c>
       <c r="F361" t="n">
-        <v>0.00780804</v>
+        <v>7.808039999999999</v>
       </c>
     </row>
     <row r="362">
@@ -7603,7 +7603,7 @@
         <v>3.645</v>
       </c>
       <c r="F362" t="n">
-        <v>0.007654500000000001</v>
+        <v>7.654500000000001</v>
       </c>
     </row>
     <row r="363">
@@ -7623,7 +7623,7 @@
         <v>3.75</v>
       </c>
       <c r="F363" t="n">
-        <v>0.007845000000000001</v>
+        <v>7.845000000000002</v>
       </c>
     </row>
     <row r="364">
@@ -7643,7 +7643,7 @@
         <v>3.81</v>
       </c>
       <c r="F364" t="n">
-        <v>0.008077200000000001</v>
+        <v>8.077200000000001</v>
       </c>
     </row>
     <row r="365">
@@ -7663,7 +7663,7 @@
         <v>4.08</v>
       </c>
       <c r="F365" t="n">
-        <v>0.00863328</v>
+        <v>8.633280000000001</v>
       </c>
     </row>
     <row r="366">
@@ -7683,7 +7683,7 @@
         <v>4.47</v>
       </c>
       <c r="F366" t="n">
-        <v>0.009655200000000001</v>
+        <v>9.655200000000001</v>
       </c>
     </row>
     <row r="367">
@@ -7703,7 +7703,7 @@
         <v>4.859999999999999</v>
       </c>
       <c r="F367" t="n">
-        <v>0.01047816</v>
+        <v>10.47816</v>
       </c>
     </row>
     <row r="368">
@@ -7723,7 +7723,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F368" t="n">
-        <v>0.01128666</v>
+        <v>11.28666</v>
       </c>
     </row>
     <row r="369">
@@ -7743,7 +7743,7 @@
         <v>5.595</v>
       </c>
       <c r="F369" t="n">
-        <v>0.01195092</v>
+        <v>11.95092</v>
       </c>
     </row>
     <row r="370">
@@ -7763,7 +7763,7 @@
         <v>5.79</v>
       </c>
       <c r="F370" t="n">
-        <v>0.01241376</v>
+        <v>12.41376</v>
       </c>
     </row>
     <row r="371">
@@ -7783,7 +7783,7 @@
         <v>5.805</v>
       </c>
       <c r="F371" t="n">
-        <v>0.01232982</v>
+        <v>12.32982</v>
       </c>
     </row>
     <row r="372">
@@ -7803,7 +7803,7 @@
         <v>5.835</v>
       </c>
       <c r="F372" t="n">
-        <v>0.01253358</v>
+        <v>12.53358</v>
       </c>
     </row>
     <row r="373">
@@ -7823,7 +7823,7 @@
         <v>5.94</v>
       </c>
       <c r="F373" t="n">
-        <v>0.01256904</v>
+        <v>12.56904</v>
       </c>
     </row>
     <row r="374">
@@ -7843,7 +7843,7 @@
         <v>6.075</v>
       </c>
       <c r="F374" t="n">
-        <v>0.012879</v>
+        <v>12.879</v>
       </c>
     </row>
     <row r="375">
@@ -7863,7 +7863,7 @@
         <v>6.105</v>
       </c>
       <c r="F375" t="n">
-        <v>0.01277166</v>
+        <v>12.77166</v>
       </c>
     </row>
     <row r="376">
@@ -7883,7 +7883,7 @@
         <v>6.135</v>
       </c>
       <c r="F376" t="n">
-        <v>0.01317798</v>
+        <v>13.17798</v>
       </c>
     </row>
     <row r="377">
@@ -7903,7 +7903,7 @@
         <v>6.315</v>
       </c>
       <c r="F377" t="n">
-        <v>0.01328676</v>
+        <v>13.28676</v>
       </c>
     </row>
     <row r="378">
@@ -7923,7 +7923,7 @@
         <v>6.734999999999999</v>
       </c>
       <c r="F378" t="n">
-        <v>0.01419738</v>
+        <v>14.19738</v>
       </c>
     </row>
     <row r="379">
@@ -7943,7 +7943,7 @@
         <v>7.185</v>
       </c>
       <c r="F379" t="n">
-        <v>0.0152322</v>
+        <v>15.2322</v>
       </c>
     </row>
     <row r="380">
@@ -7963,7 +7963,7 @@
         <v>7.35</v>
       </c>
       <c r="F380" t="n">
-        <v>0.0156702</v>
+        <v>15.6702</v>
       </c>
     </row>
     <row r="381">
@@ -7983,7 +7983,7 @@
         <v>7.484999999999999</v>
       </c>
       <c r="F381" t="n">
-        <v>0.01580832</v>
+        <v>15.80832</v>
       </c>
     </row>
     <row r="382">
@@ -8003,7 +8003,7 @@
         <v>7.62</v>
       </c>
       <c r="F382" t="n">
-        <v>0.01609344</v>
+        <v>16.09344</v>
       </c>
     </row>
     <row r="383">
@@ -8023,7 +8023,7 @@
         <v>7.995</v>
       </c>
       <c r="F383" t="n">
-        <v>0.01675752</v>
+        <v>16.75752</v>
       </c>
     </row>
     <row r="384">
@@ -8043,7 +8043,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="F384" t="n">
-        <v>0.0178872</v>
+        <v>17.8872</v>
       </c>
     </row>
     <row r="385">
@@ -8063,7 +8063,7 @@
         <v>9.09</v>
       </c>
       <c r="F385" t="n">
-        <v>0.01807092</v>
+        <v>18.07092</v>
       </c>
     </row>
     <row r="386">
@@ -8083,7 +8083,7 @@
         <v>8.85</v>
       </c>
       <c r="F386" t="n">
-        <v>0.018054</v>
+        <v>18.054</v>
       </c>
     </row>
     <row r="387">
@@ -8103,7 +8103,7 @@
         <v>8.459999999999999</v>
       </c>
       <c r="F387" t="n">
-        <v>0.01766448</v>
+        <v>17.66448</v>
       </c>
     </row>
     <row r="388">
@@ -8123,7 +8123,7 @@
         <v>8.25</v>
       </c>
       <c r="F388" t="n">
-        <v>0.017424</v>
+        <v>17.424</v>
       </c>
     </row>
     <row r="389">
@@ -8143,7 +8143,7 @@
         <v>8.43</v>
       </c>
       <c r="F389" t="n">
-        <v>0.01750068</v>
+        <v>17.50068</v>
       </c>
     </row>
     <row r="390">
@@ -8163,7 +8163,7 @@
         <v>8.73</v>
       </c>
       <c r="F390" t="n">
-        <v>0.0181584</v>
+        <v>18.1584</v>
       </c>
     </row>
     <row r="391">
@@ -8183,7 +8183,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="F391" t="n">
-        <v>0.01868256</v>
+        <v>18.68256</v>
       </c>
     </row>
     <row r="392">
@@ -8203,7 +8203,7 @@
         <v>10.2</v>
       </c>
       <c r="F392" t="n">
-        <v>0.0207672</v>
+        <v>20.7672</v>
       </c>
     </row>
     <row r="393">
@@ -8223,7 +8223,7 @@
         <v>10.53</v>
       </c>
       <c r="F393" t="n">
-        <v>0.02152332</v>
+        <v>21.52332</v>
       </c>
     </row>
     <row r="394">
@@ -8243,7 +8243,7 @@
         <v>10.53</v>
       </c>
       <c r="F394" t="n">
-        <v>0.02152332</v>
+        <v>21.52332</v>
       </c>
     </row>
     <row r="395">
@@ -8263,7 +8263,7 @@
         <v>10.38</v>
       </c>
       <c r="F395" t="n">
-        <v>0.0211752</v>
+        <v>21.1752</v>
       </c>
     </row>
     <row r="396">
@@ -8283,7 +8283,7 @@
         <v>10.26</v>
       </c>
       <c r="F396" t="n">
-        <v>0.02088936</v>
+        <v>20.88936</v>
       </c>
     </row>
     <row r="397">
@@ -8303,7 +8303,7 @@
         <v>10.23</v>
       </c>
       <c r="F397" t="n">
-        <v>0.02082828</v>
+        <v>20.82828</v>
       </c>
     </row>
     <row r="398">
@@ -8323,7 +8323,7 @@
         <v>9.945</v>
       </c>
       <c r="F398" t="n">
-        <v>0.02016846</v>
+        <v>20.16846</v>
       </c>
     </row>
     <row r="399">
@@ -8343,7 +8343,7 @@
         <v>9.764999999999999</v>
       </c>
       <c r="F399" t="n">
-        <v>0.0197253</v>
+        <v>19.7253</v>
       </c>
     </row>
     <row r="400">
@@ -8363,7 +8363,7 @@
         <v>9.705</v>
       </c>
       <c r="F400" t="n">
-        <v>0.01956528</v>
+        <v>19.56528</v>
       </c>
     </row>
     <row r="401">
@@ -8383,7 +8383,7 @@
         <v>10.08</v>
       </c>
       <c r="F401" t="n">
-        <v>0.02048256</v>
+        <v>20.48256</v>
       </c>
     </row>
     <row r="402">
@@ -8403,7 +8403,7 @@
         <v>10.515</v>
       </c>
       <c r="F402" t="n">
-        <v>0.02149266</v>
+        <v>21.49266</v>
       </c>
     </row>
     <row r="403">
@@ -8423,7 +8423,7 @@
         <v>10.95</v>
       </c>
       <c r="F403" t="n">
-        <v>0.022557</v>
+        <v>22.557</v>
       </c>
     </row>
     <row r="404">
@@ -8443,7 +8443,7 @@
         <v>11.46</v>
       </c>
       <c r="F404" t="n">
-        <v>0.0238368</v>
+        <v>23.8368</v>
       </c>
     </row>
     <row r="405">
@@ -8463,7 +8463,7 @@
         <v>11.76</v>
       </c>
       <c r="F405" t="n">
-        <v>0.02474304</v>
+        <v>24.74304</v>
       </c>
     </row>
     <row r="406">
@@ -8483,7 +8483,7 @@
         <v>11.385</v>
       </c>
       <c r="F406" t="n">
-        <v>0.02363526</v>
+        <v>23.63526</v>
       </c>
     </row>
     <row r="407">
@@ -8503,7 +8503,7 @@
         <v>11.355</v>
       </c>
       <c r="F407" t="n">
-        <v>0.02352756</v>
+        <v>23.52756</v>
       </c>
     </row>
     <row r="408">
@@ -8523,7 +8523,7 @@
         <v>11.025</v>
       </c>
       <c r="F408" t="n">
-        <v>0.0227556</v>
+        <v>22.7556</v>
       </c>
     </row>
     <row r="409">
@@ -8543,7 +8543,7 @@
         <v>10.845</v>
       </c>
       <c r="F409" t="n">
-        <v>0.02229732</v>
+        <v>22.29732</v>
       </c>
     </row>
     <row r="410">
@@ -8563,7 +8563,7 @@
         <v>10.845</v>
       </c>
       <c r="F410" t="n">
-        <v>0.02229732</v>
+        <v>22.29732</v>
       </c>
     </row>
     <row r="411">
@@ -8583,7 +8583,7 @@
         <v>10.98</v>
       </c>
       <c r="F411" t="n">
-        <v>0.0226188</v>
+        <v>22.6188</v>
       </c>
     </row>
     <row r="412">
@@ -8603,7 +8603,7 @@
         <v>11.1</v>
       </c>
       <c r="F412" t="n">
-        <v>0.0229104</v>
+        <v>22.9104</v>
       </c>
     </row>
     <row r="413">
@@ -8623,7 +8623,7 @@
         <v>11.355</v>
       </c>
       <c r="F413" t="n">
-        <v>0.02352756</v>
+        <v>23.52756</v>
       </c>
     </row>
     <row r="414">
@@ -8643,7 +8643,7 @@
         <v>11.685</v>
       </c>
       <c r="F414" t="n">
-        <v>0.02435154</v>
+        <v>24.35154</v>
       </c>
     </row>
     <row r="415">
@@ -8663,7 +8663,7 @@
         <v>11.4</v>
       </c>
       <c r="F415" t="n">
-        <v>0.0236208</v>
+        <v>23.6208</v>
       </c>
     </row>
     <row r="416">
@@ -8683,7 +8683,7 @@
         <v>11.34</v>
       </c>
       <c r="F416" t="n">
-        <v>0.02349648</v>
+        <v>23.49648</v>
       </c>
     </row>
     <row r="417">
@@ -8703,7 +8703,7 @@
         <v>11.445</v>
       </c>
       <c r="F417" t="n">
-        <v>0.02375982</v>
+        <v>23.75982</v>
       </c>
     </row>
     <row r="418">
@@ -8723,7 +8723,7 @@
         <v>11.7</v>
       </c>
       <c r="F418" t="n">
-        <v>0.02457</v>
+        <v>24.57</v>
       </c>
     </row>
     <row r="419">
@@ -8743,7 +8743,7 @@
         <v>11.94</v>
       </c>
       <c r="F419" t="n">
-        <v>0.02545608</v>
+        <v>25.45608</v>
       </c>
     </row>
     <row r="420">
@@ -8763,7 +8763,7 @@
         <v>12.435</v>
       </c>
       <c r="F420" t="n">
-        <v>0.02651142</v>
+        <v>26.51142</v>
       </c>
     </row>
     <row r="421">
@@ -8783,7 +8783,7 @@
         <v>12.21</v>
       </c>
       <c r="F421" t="n">
-        <v>0.02603172</v>
+        <v>26.03172</v>
       </c>
     </row>
     <row r="422">
@@ -8803,7 +8803,7 @@
         <v>12.36</v>
       </c>
       <c r="F422" t="n">
-        <v>0.02635152</v>
+        <v>26.35152</v>
       </c>
     </row>
     <row r="423">
@@ -8823,7 +8823,7 @@
         <v>12.36</v>
       </c>
       <c r="F423" t="n">
-        <v>0.02640096</v>
+        <v>26.40096</v>
       </c>
     </row>
     <row r="424">
@@ -8843,7 +8843,7 @@
         <v>12.645</v>
       </c>
       <c r="F424" t="n">
-        <v>0.02695914</v>
+        <v>26.95914</v>
       </c>
     </row>
     <row r="425">
@@ -8863,7 +8863,7 @@
         <v>12.78</v>
       </c>
       <c r="F425" t="n">
-        <v>0.02724696</v>
+        <v>27.24696</v>
       </c>
     </row>
     <row r="426">
@@ -8883,7 +8883,7 @@
         <v>12.885</v>
       </c>
       <c r="F426" t="n">
-        <v>0.02741928</v>
+        <v>27.41928</v>
       </c>
     </row>
     <row r="427">
@@ -8903,7 +8903,7 @@
         <v>13.14</v>
       </c>
       <c r="F427" t="n">
-        <v>0.02801448</v>
+        <v>28.01448</v>
       </c>
     </row>
     <row r="428">
@@ -8923,7 +8923,7 @@
         <v>13.17</v>
       </c>
       <c r="F428" t="n">
-        <v>0.02802576</v>
+        <v>28.02576</v>
       </c>
     </row>
     <row r="429">
@@ -8943,7 +8943,7 @@
         <v>12.945</v>
       </c>
       <c r="F429" t="n">
-        <v>0.02759874</v>
+        <v>27.59874</v>
       </c>
     </row>
     <row r="430">
@@ -8963,7 +8963,7 @@
         <v>12.765</v>
       </c>
       <c r="F430" t="n">
-        <v>0.02726604</v>
+        <v>27.26604</v>
       </c>
     </row>
     <row r="431">
@@ -8983,7 +8983,7 @@
         <v>12.72</v>
       </c>
       <c r="F431" t="n">
-        <v>0.02716992</v>
+        <v>27.16992</v>
       </c>
     </row>
     <row r="432">
@@ -9003,7 +9003,7 @@
         <v>12.72</v>
       </c>
       <c r="F432" t="n">
-        <v>0.02706816</v>
+        <v>27.06816</v>
       </c>
     </row>
     <row r="433">
@@ -9023,7 +9023,7 @@
         <v>12.795</v>
       </c>
       <c r="F433" t="n">
-        <v>0.02727894</v>
+        <v>27.27894</v>
       </c>
     </row>
     <row r="434">
@@ -9043,7 +9043,7 @@
         <v>12.975</v>
       </c>
       <c r="F434" t="n">
-        <v>0.0276108</v>
+        <v>27.6108</v>
       </c>
     </row>
     <row r="435">
@@ -9063,7 +9063,7 @@
         <v>13.095</v>
       </c>
       <c r="F435" t="n">
-        <v>0.02791854</v>
+        <v>27.91854</v>
       </c>
     </row>
     <row r="436">
@@ -9083,7 +9083,7 @@
         <v>13.14</v>
       </c>
       <c r="F436" t="n">
-        <v>0.02801448</v>
+        <v>28.01448</v>
       </c>
     </row>
     <row r="437">
@@ -9103,7 +9103,7 @@
         <v>13.14</v>
       </c>
       <c r="F437" t="n">
-        <v>0.02796192</v>
+        <v>27.96192</v>
       </c>
     </row>
     <row r="438">
@@ -9123,7 +9123,7 @@
         <v>12.9</v>
       </c>
       <c r="F438" t="n">
-        <v>0.0274512</v>
+        <v>27.4512</v>
       </c>
     </row>
     <row r="439">
@@ -9143,7 +9143,7 @@
         <v>12.72</v>
       </c>
       <c r="F439" t="n">
-        <v>0.02711904</v>
+        <v>27.11904</v>
       </c>
     </row>
     <row r="440">
@@ -9163,7 +9163,7 @@
         <v>12.705</v>
       </c>
       <c r="F440" t="n">
-        <v>0.02708706</v>
+        <v>27.08706</v>
       </c>
     </row>
     <row r="441">
@@ -9183,7 +9183,7 @@
         <v>12.78</v>
       </c>
       <c r="F441" t="n">
-        <v>0.02724696</v>
+        <v>27.24696</v>
       </c>
     </row>
     <row r="442">
@@ -9203,7 +9203,7 @@
         <v>12.81</v>
       </c>
       <c r="F442" t="n">
-        <v>0.02731092</v>
+        <v>27.31092</v>
       </c>
     </row>
     <row r="443">
@@ -9223,7 +9223,7 @@
         <v>12.825</v>
       </c>
       <c r="F443" t="n">
-        <v>0.0273429</v>
+        <v>27.3429</v>
       </c>
     </row>
     <row r="444">
@@ -9243,7 +9243,7 @@
         <v>12.795</v>
       </c>
       <c r="F444" t="n">
-        <v>0.02733012</v>
+        <v>27.33012</v>
       </c>
     </row>
     <row r="445">
@@ -9263,7 +9263,7 @@
         <v>12.93</v>
       </c>
       <c r="F445" t="n">
-        <v>0.02761848</v>
+        <v>27.61848</v>
       </c>
     </row>
     <row r="446">
@@ -9283,7 +9283,7 @@
         <v>12.855</v>
       </c>
       <c r="F446" t="n">
-        <v>0.02740686</v>
+        <v>27.40686</v>
       </c>
     </row>
     <row r="447">
@@ -9303,7 +9303,7 @@
         <v>12.615</v>
       </c>
       <c r="F447" t="n">
-        <v>0.02689518</v>
+        <v>26.89518</v>
       </c>
     </row>
     <row r="448">
@@ -9323,7 +9323,7 @@
         <v>12.585</v>
       </c>
       <c r="F448" t="n">
-        <v>0.02688156</v>
+        <v>26.88156</v>
       </c>
     </row>
     <row r="449">
@@ -9343,7 +9343,7 @@
         <v>12.66</v>
       </c>
       <c r="F449" t="n">
-        <v>0.02704176</v>
+        <v>27.04176</v>
       </c>
     </row>
     <row r="450">
@@ -9363,7 +9363,7 @@
         <v>12.78</v>
       </c>
       <c r="F450" t="n">
-        <v>0.02724696</v>
+        <v>27.24696</v>
       </c>
     </row>
     <row r="451">
@@ -9383,7 +9383,7 @@
         <v>12.885</v>
       </c>
       <c r="F451" t="n">
-        <v>0.02747082</v>
+        <v>27.47082</v>
       </c>
     </row>
     <row r="452">
@@ -9403,7 +9403,7 @@
         <v>12.75</v>
       </c>
       <c r="F452" t="n">
-        <v>0.027183</v>
+        <v>27.183</v>
       </c>
     </row>
     <row r="453">
@@ -9423,7 +9423,7 @@
         <v>12.915</v>
       </c>
       <c r="F453" t="n">
-        <v>0.02753478</v>
+        <v>27.53478</v>
       </c>
     </row>
     <row r="454">
@@ -9443,7 +9443,7 @@
         <v>12.945</v>
       </c>
       <c r="F454" t="n">
-        <v>0.02765052</v>
+        <v>27.65052</v>
       </c>
     </row>
     <row r="455">
@@ -9463,7 +9463,7 @@
         <v>12.945</v>
       </c>
       <c r="F455" t="n">
-        <v>0.02759874</v>
+        <v>27.59874</v>
       </c>
     </row>
     <row r="456">
@@ -9483,7 +9483,7 @@
         <v>12.765</v>
       </c>
       <c r="F456" t="n">
-        <v>0.02721498</v>
+        <v>27.21498</v>
       </c>
     </row>
     <row r="457">
@@ -9503,7 +9503,7 @@
         <v>12.735</v>
       </c>
       <c r="F457" t="n">
-        <v>0.02715102</v>
+        <v>27.15102</v>
       </c>
     </row>
     <row r="458">
@@ -9523,7 +9523,7 @@
         <v>12.765</v>
       </c>
       <c r="F458" t="n">
-        <v>0.02721498</v>
+        <v>27.21498</v>
       </c>
     </row>
     <row r="459">
@@ -9543,7 +9543,7 @@
         <v>12.57</v>
       </c>
       <c r="F459" t="n">
-        <v>0.02684952</v>
+        <v>26.84952</v>
       </c>
     </row>
     <row r="460">
@@ -9563,7 +9563,7 @@
         <v>12.45</v>
       </c>
       <c r="F460" t="n">
-        <v>0.0265932</v>
+        <v>26.5932</v>
       </c>
     </row>
     <row r="461">
@@ -9583,7 +9583,7 @@
         <v>12.435</v>
       </c>
       <c r="F461" t="n">
-        <v>0.02651142</v>
+        <v>26.51142</v>
       </c>
     </row>
     <row r="462">
@@ -9603,7 +9603,7 @@
         <v>12.42</v>
       </c>
       <c r="F462" t="n">
-        <v>0.02647944</v>
+        <v>26.47944</v>
       </c>
     </row>
     <row r="463">
@@ -9623,7 +9623,7 @@
         <v>12.63</v>
       </c>
       <c r="F463" t="n">
-        <v>0.02692716</v>
+        <v>26.92716</v>
       </c>
     </row>
     <row r="464">
@@ -9643,7 +9643,7 @@
         <v>12.615</v>
       </c>
       <c r="F464" t="n">
-        <v>0.02694564</v>
+        <v>26.94564</v>
       </c>
     </row>
     <row r="465">
@@ -9663,7 +9663,7 @@
         <v>12.93</v>
       </c>
       <c r="F465" t="n">
-        <v>0.02756676</v>
+        <v>27.56676</v>
       </c>
     </row>
     <row r="466">
@@ -9683,7 +9683,7 @@
         <v>13.215</v>
       </c>
       <c r="F466" t="n">
-        <v>0.02817438</v>
+        <v>28.17438</v>
       </c>
     </row>
     <row r="467">
@@ -9703,7 +9703,7 @@
         <v>13.575</v>
       </c>
       <c r="F467" t="n">
-        <v>0.0288876</v>
+        <v>28.8876</v>
       </c>
     </row>
     <row r="468">
@@ -9723,7 +9723,7 @@
         <v>13.38</v>
       </c>
       <c r="F468" t="n">
-        <v>0.02847264</v>
+        <v>28.47264</v>
       </c>
     </row>
     <row r="469">
@@ -9743,7 +9743,7 @@
         <v>13.215</v>
       </c>
       <c r="F469" t="n">
-        <v>0.02817438</v>
+        <v>28.17438</v>
       </c>
     </row>
     <row r="470">
@@ -9763,7 +9763,7 @@
         <v>13.65</v>
       </c>
       <c r="F470" t="n">
-        <v>0.0290472</v>
+        <v>29.0472</v>
       </c>
     </row>
     <row r="471">
@@ -9783,7 +9783,7 @@
         <v>13.815</v>
       </c>
       <c r="F471" t="n">
-        <v>0.02945358</v>
+        <v>29.45358</v>
       </c>
     </row>
     <row r="472">
@@ -9803,7 +9803,7 @@
         <v>14.25</v>
       </c>
       <c r="F472" t="n">
-        <v>0.030324</v>
+        <v>30.324</v>
       </c>
     </row>
     <row r="473">
@@ -9823,7 +9823,7 @@
         <v>15.255</v>
       </c>
       <c r="F473" t="n">
-        <v>0.03270671999999999</v>
+        <v>32.70671999999999</v>
       </c>
     </row>
     <row r="474">
@@ -9843,7 +9843,7 @@
         <v>15.975</v>
       </c>
       <c r="F474" t="n">
-        <v>0.0344421</v>
+        <v>34.4421</v>
       </c>
     </row>
     <row r="475">
@@ -9863,7 +9863,7 @@
         <v>16.02</v>
       </c>
       <c r="F475" t="n">
-        <v>0.03466727999999999</v>
+        <v>34.66727999999999</v>
       </c>
     </row>
     <row r="476">
@@ -9883,7 +9883,7 @@
         <v>15.795</v>
       </c>
       <c r="F476" t="n">
-        <v>0.03386448</v>
+        <v>33.86448</v>
       </c>
     </row>
     <row r="477">
@@ -9903,7 +9903,7 @@
         <v>15.495</v>
       </c>
       <c r="F477" t="n">
-        <v>0.0331593</v>
+        <v>33.1593</v>
       </c>
     </row>
     <row r="478">
@@ -9923,7 +9923,7 @@
         <v>15.405</v>
       </c>
       <c r="F478" t="n">
-        <v>0.03308994</v>
+        <v>33.08994</v>
       </c>
     </row>
     <row r="479">
@@ -9943,7 +9943,7 @@
         <v>15.57</v>
       </c>
       <c r="F479" t="n">
-        <v>0.03369348</v>
+        <v>33.69348</v>
       </c>
     </row>
     <row r="480">
@@ -9963,7 +9963,7 @@
         <v>15.855</v>
       </c>
       <c r="F480" t="n">
-        <v>0.03405654</v>
+        <v>34.05654000000001</v>
       </c>
     </row>
     <row r="481">
@@ -9983,7 +9983,7 @@
         <v>15.99</v>
       </c>
       <c r="F481" t="n">
-        <v>0.03441048</v>
+        <v>34.41048</v>
       </c>
     </row>
     <row r="482">
@@ -10003,7 +10003,7 @@
         <v>16.38</v>
       </c>
       <c r="F482" t="n">
-        <v>0.03544632</v>
+        <v>35.44632</v>
       </c>
     </row>
     <row r="483">
@@ -10023,7 +10023,7 @@
         <v>16.47</v>
       </c>
       <c r="F483" t="n">
-        <v>0.03597048</v>
+        <v>35.97048</v>
       </c>
     </row>
     <row r="484">
@@ -10043,7 +10043,7 @@
         <v>16.335</v>
       </c>
       <c r="F484" t="n">
-        <v>0.03619836000000001</v>
+        <v>36.19836000000002</v>
       </c>
     </row>
     <row r="485">
@@ -10063,7 +10063,7 @@
         <v>15.96</v>
       </c>
       <c r="F485" t="n">
-        <v>0.03466512</v>
+        <v>34.66512</v>
       </c>
     </row>
     <row r="486">
@@ -10083,7 +10083,7 @@
         <v>16.29</v>
       </c>
       <c r="F486" t="n">
-        <v>0.03544704</v>
+        <v>35.44704</v>
       </c>
     </row>
     <row r="487">
@@ -10103,7 +10103,7 @@
         <v>16.695</v>
       </c>
       <c r="F487" t="n">
-        <v>0.03659544000000001</v>
+        <v>36.59544</v>
       </c>
     </row>
     <row r="488">
@@ -10123,7 +10123,7 @@
         <v>17.025</v>
       </c>
       <c r="F488" t="n">
-        <v>0.0364335</v>
+        <v>36.4335</v>
       </c>
     </row>
     <row r="489">
@@ -10143,7 +10143,7 @@
         <v>17.115</v>
       </c>
       <c r="F489" t="n">
-        <v>0.0373107</v>
+        <v>37.3107</v>
       </c>
     </row>
     <row r="490">
@@ -10163,7 +10163,7 @@
         <v>17.52</v>
       </c>
       <c r="F490" t="n">
-        <v>0.03812352</v>
+        <v>38.12352</v>
       </c>
     </row>
     <row r="491">
@@ -10183,7 +10183,7 @@
         <v>17.685</v>
       </c>
       <c r="F491" t="n">
-        <v>0.0385533</v>
+        <v>38.5533</v>
       </c>
     </row>
     <row r="492">
@@ -10203,7 +10203,7 @@
         <v>17.985</v>
       </c>
       <c r="F492" t="n">
-        <v>0.03877566</v>
+        <v>38.77566</v>
       </c>
     </row>
     <row r="493">
@@ -10223,7 +10223,7 @@
         <v>18.39</v>
       </c>
       <c r="F493" t="n">
-        <v>0.0397224</v>
+        <v>39.7224</v>
       </c>
     </row>
     <row r="494">
@@ -10243,7 +10243,7 @@
         <v>18.525</v>
       </c>
       <c r="F494" t="n">
-        <v>0.0406068</v>
+        <v>40.6068</v>
       </c>
     </row>
     <row r="495">
@@ -10263,7 +10263,7 @@
         <v>18.75</v>
       </c>
       <c r="F495" t="n">
-        <v>0.040575</v>
+        <v>40.575</v>
       </c>
     </row>
     <row r="496">
@@ -10283,7 +10283,7 @@
         <v>19.14</v>
       </c>
       <c r="F496" t="n">
-        <v>0.04203144</v>
+        <v>42.03144</v>
       </c>
     </row>
     <row r="497">
@@ -10303,7 +10303,7 @@
         <v>19.44</v>
       </c>
       <c r="F497" t="n">
-        <v>0.04253472</v>
+        <v>42.53472</v>
       </c>
     </row>
     <row r="498">
@@ -10323,7 +10323,7 @@
         <v>19.395</v>
       </c>
       <c r="F498" t="n">
-        <v>0.0422811</v>
+        <v>42.2811</v>
       </c>
     </row>
     <row r="499">
@@ -10343,7 +10343,7 @@
         <v>19.05</v>
       </c>
       <c r="F499" t="n">
-        <v>0.042291</v>
+        <v>42.291</v>
       </c>
     </row>
     <row r="500">
@@ -10363,7 +10363,7 @@
         <v>18.48</v>
       </c>
       <c r="F500" t="n">
-        <v>0.04021248000000001</v>
+        <v>40.21248000000001</v>
       </c>
     </row>
     <row r="501">
@@ -10383,7 +10383,7 @@
         <v>18.24</v>
       </c>
       <c r="F501" t="n">
-        <v>0.04020096</v>
+        <v>40.20096</v>
       </c>
     </row>
     <row r="502">
@@ -10403,7 +10403,7 @@
         <v>18.105</v>
       </c>
       <c r="F502" t="n">
-        <v>0.03932406</v>
+        <v>39.32406</v>
       </c>
     </row>
     <row r="503">
@@ -10423,7 +10423,7 @@
         <v>17.37</v>
       </c>
       <c r="F503" t="n">
-        <v>0.038214</v>
+        <v>38.214</v>
       </c>
     </row>
     <row r="504">
@@ -10443,7 +10443,7 @@
         <v>17.31</v>
       </c>
       <c r="F504" t="n">
-        <v>0.03780504</v>
+        <v>37.80504</v>
       </c>
     </row>
     <row r="505">
@@ -10463,7 +10463,7 @@
         <v>16.89</v>
       </c>
       <c r="F505" t="n">
-        <v>0.0368202</v>
+        <v>36.8202</v>
       </c>
     </row>
     <row r="506">
@@ -10483,7 +10483,7 @@
         <v>15.9</v>
       </c>
       <c r="F506" t="n">
-        <v>0.035298</v>
+        <v>35.298</v>
       </c>
     </row>
     <row r="507">
@@ -10503,7 +10503,7 @@
         <v>15.255</v>
       </c>
       <c r="F507" t="n">
-        <v>0.0329508</v>
+        <v>32.9508</v>
       </c>
     </row>
     <row r="508">
@@ -10523,7 +10523,7 @@
         <v>15.66</v>
       </c>
       <c r="F508" t="n">
-        <v>0.03401352</v>
+        <v>34.01352</v>
       </c>
     </row>
     <row r="509">
@@ -10543,7 +10543,7 @@
         <v>17.4</v>
       </c>
       <c r="F509" t="n">
-        <v>0.0380712</v>
+        <v>38.0712</v>
       </c>
     </row>
     <row r="510">
@@ -10563,7 +10563,7 @@
         <v>17.49</v>
       </c>
       <c r="F510" t="n">
-        <v>0.03840804</v>
+        <v>38.40804</v>
       </c>
     </row>
     <row r="511">
@@ -10583,7 +10583,7 @@
         <v>16.2</v>
       </c>
       <c r="F511" t="n">
-        <v>0.0346032</v>
+        <v>34.6032</v>
       </c>
     </row>
     <row r="512">
@@ -10603,7 +10603,7 @@
         <v>16.53</v>
       </c>
       <c r="F512" t="n">
-        <v>0.03557256</v>
+        <v>35.57256</v>
       </c>
     </row>
     <row r="513">
@@ -10623,7 +10623,7 @@
         <v>16.605</v>
       </c>
       <c r="F513" t="n">
-        <v>0.03599964000000001</v>
+        <v>35.99964000000001</v>
       </c>
     </row>
     <row r="514">
@@ -10643,7 +10643,7 @@
         <v>17.61</v>
       </c>
       <c r="F514" t="n">
-        <v>0.03810804</v>
+        <v>38.10804</v>
       </c>
     </row>
     <row r="515">
@@ -10663,7 +10663,7 @@
         <v>16.29</v>
       </c>
       <c r="F515" t="n">
-        <v>0.03544704</v>
+        <v>35.44704</v>
       </c>
     </row>
     <row r="516">
@@ -10683,7 +10683,7 @@
         <v>17.805</v>
       </c>
       <c r="F516" t="n">
-        <v>0.03874368</v>
+        <v>38.74368</v>
       </c>
     </row>
     <row r="517">
@@ -10703,7 +10703,7 @@
         <v>17.715</v>
       </c>
       <c r="F517" t="n">
-        <v>0.03847698000000001</v>
+        <v>38.47698</v>
       </c>
     </row>
     <row r="518">
@@ -10723,7 +10723,7 @@
         <v>18.12</v>
       </c>
       <c r="F518" t="n">
-        <v>0.03935664000000001</v>
+        <v>39.35664000000001</v>
       </c>
     </row>
     <row r="519">
@@ -10743,7 +10743,7 @@
         <v>17.805</v>
       </c>
       <c r="F519" t="n">
-        <v>0.03895734</v>
+        <v>38.95734</v>
       </c>
     </row>
     <row r="520">
@@ -10763,7 +10763,7 @@
         <v>18.69</v>
       </c>
       <c r="F520" t="n">
-        <v>0.04104323999999999</v>
+        <v>41.04323999999999</v>
       </c>
     </row>
     <row r="521">
@@ -10783,7 +10783,7 @@
         <v>18.795</v>
       </c>
       <c r="F521" t="n">
-        <v>0.04104828</v>
+        <v>41.04828</v>
       </c>
     </row>
     <row r="522">
@@ -10803,7 +10803,7 @@
         <v>18.9</v>
       </c>
       <c r="F522" t="n">
-        <v>0.041202</v>
+        <v>41.20200000000001</v>
       </c>
     </row>
     <row r="523">
@@ -10823,7 +10823,7 @@
         <v>19.02</v>
       </c>
       <c r="F523" t="n">
-        <v>0.04161576</v>
+        <v>41.61576</v>
       </c>
     </row>
     <row r="524">
@@ -10843,7 +10843,7 @@
         <v>19.125</v>
       </c>
       <c r="F524" t="n">
-        <v>0.04176900000000001</v>
+        <v>41.76900000000001</v>
       </c>
     </row>
     <row r="525">
@@ -10863,7 +10863,7 @@
         <v>18.96</v>
       </c>
       <c r="F525" t="n">
-        <v>0.04102944000000001</v>
+        <v>41.02944000000001</v>
       </c>
     </row>
     <row r="526">
@@ -10883,7 +10883,7 @@
         <v>18.735</v>
       </c>
       <c r="F526" t="n">
-        <v>0.04106712000000001</v>
+        <v>41.06712000000001</v>
       </c>
     </row>
     <row r="527">
@@ -10903,7 +10903,7 @@
         <v>19.635</v>
       </c>
       <c r="F527" t="n">
-        <v>0.04296138</v>
+        <v>42.96138</v>
       </c>
     </row>
     <row r="528">
@@ -10923,7 +10923,7 @@
         <v>19.965</v>
       </c>
       <c r="F528" t="n">
-        <v>0.0431244</v>
+        <v>43.1244</v>
       </c>
     </row>
     <row r="529">
@@ -10943,7 +10943,7 @@
         <v>19.275</v>
       </c>
       <c r="F529" t="n">
-        <v>0.041634</v>
+        <v>41.634</v>
       </c>
     </row>
     <row r="530">
@@ -10963,7 +10963,7 @@
         <v>20.355</v>
       </c>
       <c r="F530" t="n">
-        <v>0.04396680000000001</v>
+        <v>43.96680000000001</v>
       </c>
     </row>
     <row r="531">
@@ -10983,7 +10983,7 @@
         <v>20.565</v>
       </c>
       <c r="F531" t="n">
-        <v>0.04532526</v>
+        <v>45.32526</v>
       </c>
     </row>
     <row r="532">
@@ -11003,7 +11003,7 @@
         <v>20.595</v>
       </c>
       <c r="F532" t="n">
-        <v>0.04423806</v>
+        <v>44.23806</v>
       </c>
     </row>
     <row r="533">
@@ -11023,7 +11023,7 @@
         <v>20.655</v>
       </c>
       <c r="F533" t="n">
-        <v>0.04494528</v>
+        <v>44.94528</v>
       </c>
     </row>
     <row r="534">
@@ -11043,7 +11043,7 @@
         <v>20.61</v>
       </c>
       <c r="F534" t="n">
-        <v>0.04542444</v>
+        <v>45.42444</v>
       </c>
     </row>
     <row r="535">
@@ -11063,7 +11063,7 @@
         <v>20.76</v>
       </c>
       <c r="F535" t="n">
-        <v>0.04500768</v>
+        <v>45.00768</v>
       </c>
     </row>
     <row r="536">
@@ -11083,7 +11083,7 @@
         <v>20.985</v>
       </c>
       <c r="F536" t="n">
-        <v>0.04566336000000001</v>
+        <v>45.66336</v>
       </c>
     </row>
     <row r="537">
@@ -11103,7 +11103,7 @@
         <v>21.15</v>
       </c>
       <c r="F537" t="n">
-        <v>0.0458532</v>
+        <v>45.85319999999999</v>
       </c>
     </row>
     <row r="538">
@@ -11123,7 +11123,7 @@
         <v>21.285</v>
       </c>
       <c r="F538" t="n">
-        <v>0.0476784</v>
+        <v>47.6784</v>
       </c>
     </row>
     <row r="539">
@@ -11143,7 +11143,7 @@
         <v>21.495</v>
       </c>
       <c r="F539" t="n">
-        <v>0.04608528</v>
+        <v>46.08528</v>
       </c>
     </row>
     <row r="540">
@@ -11163,7 +11163,7 @@
         <v>21.705</v>
       </c>
       <c r="F540" t="n">
-        <v>0.0473169</v>
+        <v>47.3169</v>
       </c>
     </row>
     <row r="541">
@@ -11183,7 +11183,7 @@
         <v>21.855</v>
       </c>
       <c r="F541" t="n">
-        <v>0.04834326000000001</v>
+        <v>48.34326000000001</v>
       </c>
     </row>
     <row r="542">
@@ -11203,7 +11203,7 @@
         <v>21.945</v>
       </c>
       <c r="F542" t="n">
-        <v>0.04766454000000001</v>
+        <v>47.66454000000001</v>
       </c>
     </row>
     <row r="543">
@@ -11223,7 +11223,7 @@
         <v>20.67</v>
       </c>
       <c r="F543" t="n">
-        <v>0.04522596</v>
+        <v>45.22596</v>
       </c>
     </row>
     <row r="544">
@@ -11243,7 +11243,7 @@
         <v>21.165</v>
       </c>
       <c r="F544" t="n">
-        <v>0.04613970000000001</v>
+        <v>46.13970000000001</v>
       </c>
     </row>
     <row r="545">
@@ -11263,7 +11263,7 @@
         <v>20.655</v>
       </c>
       <c r="F545" t="n">
-        <v>0.04478004</v>
+        <v>44.78004</v>
       </c>
     </row>
     <row r="546">
@@ -11283,7 +11283,7 @@
         <v>22.305</v>
       </c>
       <c r="F546" t="n">
-        <v>0.04844646</v>
+        <v>48.44645999999999</v>
       </c>
     </row>
     <row r="547">
@@ -11303,7 +11303,7 @@
         <v>23.385</v>
       </c>
       <c r="F547" t="n">
-        <v>0.05097930000000001</v>
+        <v>50.97930000000001</v>
       </c>
     </row>
     <row r="548">
@@ -11323,7 +11323,7 @@
         <v>18.63</v>
       </c>
       <c r="F548" t="n">
-        <v>0.04120956000000001</v>
+        <v>41.20956000000001</v>
       </c>
     </row>
     <row r="549">
@@ -11343,7 +11343,7 @@
         <v>23.775</v>
       </c>
       <c r="F549" t="n">
-        <v>0.0521148</v>
+        <v>52.1148</v>
       </c>
     </row>
     <row r="550">
@@ -11363,7 +11363,7 @@
         <v>25.125</v>
       </c>
       <c r="F550" t="n">
-        <v>0.05487300000000001</v>
+        <v>54.87300000000001</v>
       </c>
     </row>
     <row r="551">
@@ -11383,7 +11383,7 @@
         <v>27.21</v>
       </c>
       <c r="F551" t="n">
-        <v>0.05942664</v>
+        <v>59.42664000000001</v>
       </c>
     </row>
     <row r="552">
@@ -11403,7 +11403,7 @@
         <v>26.82</v>
       </c>
       <c r="F552" t="n">
-        <v>0.05868216</v>
+        <v>58.68216</v>
       </c>
     </row>
     <row r="553">
@@ -11423,7 +11423,7 @@
         <v>17.97</v>
       </c>
       <c r="F553" t="n">
-        <v>0.03859956</v>
+        <v>38.59956</v>
       </c>
     </row>
     <row r="554">
@@ -11443,7 +11443,7 @@
         <v>32.025</v>
       </c>
       <c r="F554" t="n">
-        <v>0.0700707</v>
+        <v>70.0707</v>
       </c>
     </row>
     <row r="555">
@@ -11463,7 +11463,7 @@
         <v>33.255</v>
       </c>
       <c r="F555" t="n">
-        <v>0.07276194</v>
+        <v>72.76194</v>
       </c>
     </row>
     <row r="556">
@@ -11483,7 +11483,7 @@
         <v>36.375</v>
       </c>
       <c r="F556" t="n">
-        <v>0.07973400000000001</v>
+        <v>79.73400000000001</v>
       </c>
     </row>
     <row r="557">
@@ -11503,7 +11503,7 @@
         <v>38.82</v>
       </c>
       <c r="F557" t="n">
-        <v>0.08478288</v>
+        <v>84.78288000000001</v>
       </c>
     </row>
     <row r="558">
@@ -11523,7 +11523,7 @@
         <v>39.66</v>
       </c>
       <c r="F558" t="n">
-        <v>0.08677607999999999</v>
+        <v>86.77607999999999</v>
       </c>
     </row>
     <row r="559">
@@ -11543,7 +11543,7 @@
         <v>38.76</v>
       </c>
       <c r="F559" t="n">
-        <v>0.08449680000000001</v>
+        <v>84.49680000000001</v>
       </c>
     </row>
     <row r="560">
@@ -11563,7 +11563,7 @@
         <v>46.65</v>
       </c>
       <c r="F560" t="n">
-        <v>0.1022568</v>
+        <v>102.2568</v>
       </c>
     </row>
     <row r="561">
@@ -11583,7 +11583,7 @@
         <v>23.115</v>
       </c>
       <c r="F561" t="n">
-        <v>0.05057562</v>
+        <v>50.57562</v>
       </c>
     </row>
     <row r="562">
@@ -11603,7 +11603,7 @@
         <v>20.97</v>
       </c>
       <c r="F562" t="n">
-        <v>0.04563072000000001</v>
+        <v>45.63072</v>
       </c>
     </row>
     <row r="563">
@@ -11623,7 +11623,7 @@
         <v>20.64</v>
       </c>
       <c r="F563" t="n">
-        <v>0.04441728</v>
+        <v>44.41728000000001</v>
       </c>
     </row>
     <row r="564">
@@ -11643,7 +11643,7 @@
         <v>21.885</v>
       </c>
       <c r="F564" t="n">
-        <v>0.04840961999999999</v>
+        <v>48.40961999999999</v>
       </c>
     </row>
     <row r="565">
@@ -11663,7 +11663,7 @@
         <v>23.235</v>
       </c>
       <c r="F565" t="n">
-        <v>0.05093112</v>
+        <v>50.93112</v>
       </c>
     </row>
     <row r="566">
@@ -11683,7 +11683,7 @@
         <v>19.2</v>
       </c>
       <c r="F566" t="n">
-        <v>0.0416256</v>
+        <v>41.6256</v>
       </c>
     </row>
     <row r="567">
@@ -11703,7 +11703,7 @@
         <v>21.555</v>
       </c>
       <c r="F567" t="n">
-        <v>0.04690368</v>
+        <v>46.90368</v>
       </c>
     </row>
     <row r="568">
@@ -11723,7 +11723,7 @@
         <v>31.095</v>
       </c>
       <c r="F568" t="n">
-        <v>0.06803586</v>
+        <v>68.03586</v>
       </c>
     </row>
     <row r="569">
@@ -11743,7 +11743,7 @@
         <v>26.115</v>
       </c>
       <c r="F569" t="n">
-        <v>0.05734854</v>
+        <v>57.34854</v>
       </c>
     </row>
     <row r="570">
@@ -11763,7 +11763,7 @@
         <v>20.115</v>
       </c>
       <c r="F570" t="n">
-        <v>0.04256334</v>
+        <v>42.56334</v>
       </c>
     </row>
     <row r="571">
@@ -11783,7 +11783,7 @@
         <v>19.2</v>
       </c>
       <c r="F571" t="n">
-        <v>0.0416256</v>
+        <v>41.6256</v>
       </c>
     </row>
     <row r="572">
@@ -11803,7 +11803,7 @@
         <v>20.745</v>
       </c>
       <c r="F572" t="n">
-        <v>0.04489218</v>
+        <v>44.89218</v>
       </c>
     </row>
     <row r="573">
@@ -11823,7 +11823,7 @@
         <v>18.63</v>
       </c>
       <c r="F573" t="n">
-        <v>0.04031532</v>
+        <v>40.31532</v>
       </c>
     </row>
     <row r="574">
@@ -11843,7 +11843,7 @@
         <v>18.24</v>
       </c>
       <c r="F574" t="n">
-        <v>0.03888767999999999</v>
+        <v>38.88767999999999</v>
       </c>
     </row>
     <row r="575">
@@ -11863,7 +11863,7 @@
         <v>19.29</v>
       </c>
       <c r="F575" t="n">
-        <v>0.04251516</v>
+        <v>42.51516</v>
       </c>
     </row>
     <row r="576">
@@ -11883,7 +11883,7 @@
         <v>19.02</v>
       </c>
       <c r="F576" t="n">
-        <v>0.04207224</v>
+        <v>42.07223999999999</v>
       </c>
     </row>
     <row r="577">
@@ -11903,7 +11903,7 @@
         <v>17.895</v>
       </c>
       <c r="F577" t="n">
-        <v>0.03951216</v>
+        <v>39.51215999999999</v>
       </c>
     </row>
     <row r="578">
@@ -11923,7 +11923,7 @@
         <v>18.45</v>
       </c>
       <c r="F578" t="n">
-        <v>0.0399258</v>
+        <v>39.9258</v>
       </c>
     </row>
     <row r="579">
@@ -11943,7 +11943,7 @@
         <v>20.16</v>
       </c>
       <c r="F579" t="n">
-        <v>0.04427136</v>
+        <v>44.27136</v>
       </c>
     </row>
     <row r="580">
@@ -11963,7 +11963,7 @@
         <v>20.67</v>
       </c>
       <c r="F580" t="n">
-        <v>0.04539132</v>
+        <v>45.39132</v>
       </c>
     </row>
     <row r="581">
@@ -11983,7 +11983,7 @@
         <v>18.21</v>
       </c>
       <c r="F581" t="n">
-        <v>0.03962496</v>
+        <v>39.62496</v>
       </c>
     </row>
     <row r="582">
@@ -12003,7 +12003,7 @@
         <v>16.335</v>
       </c>
       <c r="F582" t="n">
-        <v>0.03574098000000001</v>
+        <v>35.74098000000001</v>
       </c>
     </row>
     <row r="583">
@@ -12023,7 +12023,7 @@
         <v>17.805</v>
       </c>
       <c r="F583" t="n">
-        <v>0.0388149</v>
+        <v>38.8149</v>
       </c>
     </row>
     <row r="584">
@@ -12043,7 +12043,7 @@
         <v>24.66</v>
       </c>
       <c r="F584" t="n">
-        <v>0.05405472</v>
+        <v>54.05472</v>
       </c>
     </row>
     <row r="585">
@@ -12063,7 +12063,7 @@
         <v>25.395</v>
       </c>
       <c r="F585" t="n">
-        <v>0.05556426</v>
+        <v>55.56426</v>
       </c>
     </row>
     <row r="586">
@@ -12083,7 +12083,7 @@
         <v>25.455</v>
       </c>
       <c r="F586" t="n">
-        <v>0.05559372</v>
+        <v>55.59372</v>
       </c>
     </row>
     <row r="587">
@@ -12103,7 +12103,7 @@
         <v>36.72</v>
       </c>
       <c r="F587" t="n">
-        <v>0.0800496</v>
+        <v>80.0496</v>
       </c>
     </row>
     <row r="588">
@@ -12123,7 +12123,7 @@
         <v>37.755</v>
       </c>
       <c r="F588" t="n">
-        <v>0.08230589999999999</v>
+        <v>82.30589999999999</v>
       </c>
     </row>
     <row r="589">
@@ -12143,7 +12143,7 @@
         <v>38.73</v>
       </c>
       <c r="F589" t="n">
-        <v>0.08458632000000001</v>
+        <v>84.58632</v>
       </c>
     </row>
     <row r="590">
@@ -12163,7 +12163,7 @@
         <v>41.91</v>
       </c>
       <c r="F590" t="n">
-        <v>0.09186672</v>
+        <v>91.86672</v>
       </c>
     </row>
     <row r="591">
@@ -12183,7 +12183,7 @@
         <v>42.6</v>
       </c>
       <c r="F591" t="n">
-        <v>0.09337920000000001</v>
+        <v>93.37920000000001</v>
       </c>
     </row>
     <row r="592">
@@ -12203,7 +12203,7 @@
         <v>41.73</v>
       </c>
       <c r="F592" t="n">
-        <v>0.09130524</v>
+        <v>91.30524</v>
       </c>
     </row>
     <row r="593">
@@ -12223,7 +12223,7 @@
         <v>34.695</v>
       </c>
       <c r="F593" t="n">
-        <v>0.07549632000000001</v>
+        <v>75.49632000000001</v>
       </c>
     </row>
     <row r="594">
@@ -12243,7 +12243,7 @@
         <v>32.4</v>
       </c>
       <c r="F594" t="n">
-        <v>0.07076160000000001</v>
+        <v>70.7616</v>
       </c>
     </row>
     <row r="595">
@@ -12263,7 +12263,7 @@
         <v>33.39</v>
       </c>
       <c r="F595" t="n">
-        <v>0.07305732000000001</v>
+        <v>73.05732</v>
       </c>
     </row>
     <row r="596">
@@ -12283,7 +12283,7 @@
         <v>36.555</v>
       </c>
       <c r="F596" t="n">
-        <v>0.07968990000000001</v>
+        <v>79.68990000000001</v>
       </c>
     </row>
     <row r="597">
@@ -12303,7 +12303,7 @@
         <v>39.555</v>
       </c>
       <c r="F597" t="n">
-        <v>0.08654634</v>
+        <v>86.54634</v>
       </c>
     </row>
     <row r="598">
@@ -12323,7 +12323,7 @@
         <v>49.05</v>
       </c>
       <c r="F598" t="n">
-        <v>0.1073214</v>
+        <v>107.3214</v>
       </c>
     </row>
     <row r="599">
@@ -12343,7 +12343,7 @@
         <v>43.11</v>
       </c>
       <c r="F599" t="n">
-        <v>0.09432467999999999</v>
+        <v>94.32468</v>
       </c>
     </row>
     <row r="600">
@@ -12363,7 +12363,7 @@
         <v>40.725</v>
       </c>
       <c r="F600" t="n">
-        <v>0.0891063</v>
+        <v>89.1063</v>
       </c>
     </row>
     <row r="601">
@@ -12383,7 +12383,7 @@
         <v>22.755</v>
       </c>
       <c r="F601" t="n">
-        <v>0.04878672000000001</v>
+        <v>48.78672000000001</v>
       </c>
     </row>
     <row r="602">
@@ -12403,7 +12403,7 @@
         <v>21.045</v>
       </c>
       <c r="F602" t="n">
-        <v>0.04596228</v>
+        <v>45.96228</v>
       </c>
     </row>
     <row r="603">
@@ -12423,7 +12423,7 @@
         <v>21.09</v>
       </c>
       <c r="F603" t="n">
-        <v>0.04563876000000001</v>
+        <v>45.63876</v>
       </c>
     </row>
     <row r="604">
@@ -12443,7 +12443,7 @@
         <v>21.435</v>
       </c>
       <c r="F604" t="n">
-        <v>0.04741422</v>
+        <v>47.41422</v>
       </c>
     </row>
     <row r="605">
@@ -12463,7 +12463,7 @@
         <v>21.36</v>
       </c>
       <c r="F605" t="n">
-        <v>0.04707744000000001</v>
+        <v>47.07744000000001</v>
       </c>
     </row>
     <row r="606">
@@ -12483,7 +12483,7 @@
         <v>21.33</v>
       </c>
       <c r="F606" t="n">
-        <v>0.04684068</v>
+        <v>46.84068000000001</v>
       </c>
     </row>
     <row r="607">
@@ -12503,7 +12503,7 @@
         <v>21.615</v>
       </c>
       <c r="F607" t="n">
-        <v>0.0466884</v>
+        <v>46.6884</v>
       </c>
     </row>
     <row r="608">
@@ -12523,7 +12523,7 @@
         <v>22.365</v>
       </c>
       <c r="F608" t="n">
-        <v>0.04929246</v>
+        <v>49.29246000000001</v>
       </c>
     </row>
     <row r="609">
@@ -12543,7 +12543,7 @@
         <v>23.88</v>
       </c>
       <c r="F609" t="n">
-        <v>0.0515808</v>
+        <v>51.5808</v>
       </c>
     </row>
     <row r="610">
@@ -12563,7 +12563,7 @@
         <v>26.04</v>
       </c>
       <c r="F610" t="n">
-        <v>0.05707968</v>
+        <v>57.07968</v>
       </c>
     </row>
     <row r="611">
@@ -12583,7 +12583,7 @@
         <v>28.815</v>
       </c>
       <c r="F611" t="n">
-        <v>0.0628167</v>
+        <v>62.8167</v>
       </c>
     </row>
     <row r="612">
@@ -12603,7 +12603,7 @@
         <v>30.825</v>
       </c>
       <c r="F612" t="n">
-        <v>0.06744509999999999</v>
+        <v>67.4451</v>
       </c>
     </row>
     <row r="613">
@@ -12623,7 +12623,7 @@
         <v>31.635</v>
       </c>
       <c r="F613" t="n">
-        <v>0.06909084</v>
+        <v>69.09084</v>
       </c>
     </row>
     <row r="614">
@@ -12643,7 +12643,7 @@
         <v>33.705</v>
       </c>
       <c r="F614" t="n">
-        <v>0.07320726000000001</v>
+        <v>73.20726000000001</v>
       </c>
     </row>
     <row r="615">
@@ -12663,7 +12663,7 @@
         <v>35.34</v>
       </c>
       <c r="F615" t="n">
-        <v>0.07746528</v>
+        <v>77.46527999999999</v>
       </c>
     </row>
     <row r="616">
@@ -12683,7 +12683,7 @@
         <v>33.48</v>
       </c>
       <c r="F616" t="n">
-        <v>0.07338815999999999</v>
+        <v>73.38816</v>
       </c>
     </row>
     <row r="617">
@@ -12703,7 +12703,7 @@
         <v>31.53</v>
       </c>
       <c r="F617" t="n">
-        <v>0.06898764</v>
+        <v>68.98764</v>
       </c>
     </row>
     <row r="618">
@@ -12723,7 +12723,7 @@
         <v>29.595</v>
       </c>
       <c r="F618" t="n">
-        <v>0.06451709999999999</v>
+        <v>64.5171</v>
       </c>
     </row>
     <row r="619">
@@ -12743,7 +12743,7 @@
         <v>28.035</v>
       </c>
       <c r="F619" t="n">
-        <v>0.06122844000000001</v>
+        <v>61.22844000000001</v>
       </c>
     </row>
     <row r="620">
@@ -12763,7 +12763,7 @@
         <v>27.09</v>
       </c>
       <c r="F620" t="n">
-        <v>0.05862276000000001</v>
+        <v>58.62276000000001</v>
       </c>
     </row>
     <row r="621">
@@ -12783,7 +12783,7 @@
         <v>25.905</v>
       </c>
       <c r="F621" t="n">
-        <v>0.05657652000000001</v>
+        <v>56.57652000000001</v>
       </c>
     </row>
     <row r="622">
@@ -12803,7 +12803,7 @@
         <v>24.27</v>
       </c>
       <c r="F622" t="n">
-        <v>0.05261736</v>
+        <v>52.61736000000001</v>
       </c>
     </row>
     <row r="623">
@@ -12823,7 +12823,7 @@
         <v>22.425</v>
       </c>
       <c r="F623" t="n">
-        <v>0.0485277</v>
+        <v>48.5277</v>
       </c>
     </row>
     <row r="624">
@@ -12843,7 +12843,7 @@
         <v>21.18</v>
       </c>
       <c r="F624" t="n">
-        <v>0.04625712</v>
+        <v>46.25712</v>
       </c>
     </row>
     <row r="625">
@@ -12863,7 +12863,7 @@
         <v>20.475</v>
       </c>
       <c r="F625" t="n">
-        <v>0.0445536</v>
+        <v>44.5536</v>
       </c>
     </row>
     <row r="626">
@@ -12883,7 +12883,7 @@
         <v>20.01</v>
       </c>
       <c r="F626" t="n">
-        <v>0.04386192</v>
+        <v>43.86192</v>
       </c>
     </row>
     <row r="627">
@@ -12903,7 +12903,7 @@
         <v>19.695</v>
       </c>
       <c r="F627" t="n">
-        <v>0.04317144000000001</v>
+        <v>43.17144000000001</v>
       </c>
     </row>
     <row r="628">
@@ -12923,7 +12923,7 @@
         <v>19.23</v>
       </c>
       <c r="F628" t="n">
-        <v>0.04207524</v>
+        <v>42.07524</v>
       </c>
     </row>
     <row r="629">
@@ -12943,7 +12943,7 @@
         <v>18.72</v>
       </c>
       <c r="F629" t="n">
-        <v>0.04088448</v>
+        <v>40.88448</v>
       </c>
     </row>
     <row r="630">
@@ -12963,7 +12963,7 @@
         <v>18.315</v>
       </c>
       <c r="F630" t="n">
-        <v>0.03978017999999999</v>
+        <v>39.78017999999999</v>
       </c>
     </row>
     <row r="631">
@@ -12983,7 +12983,7 @@
         <v>18.195</v>
       </c>
       <c r="F631" t="n">
-        <v>0.040029</v>
+        <v>40.029</v>
       </c>
     </row>
     <row r="632">
@@ -13003,7 +13003,7 @@
         <v>18.585</v>
       </c>
       <c r="F632" t="n">
-        <v>0.04073832</v>
+        <v>40.73832</v>
       </c>
     </row>
     <row r="633">
@@ -13023,7 +13023,7 @@
         <v>20.685</v>
       </c>
       <c r="F633" t="n">
-        <v>0.04501056</v>
+        <v>45.01056</v>
       </c>
     </row>
     <row r="634">
@@ -13043,7 +13043,7 @@
         <v>21.075</v>
       </c>
       <c r="F634" t="n">
-        <v>0.0454377</v>
+        <v>45.4377</v>
       </c>
     </row>
     <row r="635">
@@ -13063,7 +13063,5127 @@
         <v>20.16</v>
       </c>
       <c r="F635" t="n">
-        <v>0.04386816</v>
+        <v>43.86816</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>32</v>
+      </c>
+      <c r="B636" s="1" t="n">
+        <v>0.4495014603009259</v>
+      </c>
+      <c r="C636" t="n">
+        <v>87</v>
+      </c>
+      <c r="D636" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E636" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="F636" t="n">
+        <v>43.8696</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>33</v>
+      </c>
+      <c r="B637" s="1" t="n">
+        <v>0.4501952334375</v>
+      </c>
+      <c r="C637" t="n">
+        <v>87</v>
+      </c>
+      <c r="D637" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="E637" t="n">
+        <v>20.865</v>
+      </c>
+      <c r="F637" t="n">
+        <v>44.81802</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>34</v>
+      </c>
+      <c r="B638" s="1" t="n">
+        <v>0.4509011527430556</v>
+      </c>
+      <c r="C638" t="n">
+        <v>87</v>
+      </c>
+      <c r="D638" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="E638" t="n">
+        <v>22.215</v>
+      </c>
+      <c r="F638" t="n">
+        <v>48.51756</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>35</v>
+      </c>
+      <c r="B639" s="1" t="n">
+        <v>0.4515831288425926</v>
+      </c>
+      <c r="C639" t="n">
+        <v>87</v>
+      </c>
+      <c r="D639" t="n">
+        <v>2.152</v>
+      </c>
+      <c r="E639" t="n">
+        <v>22.785</v>
+      </c>
+      <c r="F639" t="n">
+        <v>49.03332000000001</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>36</v>
+      </c>
+      <c r="B640" s="1" t="n">
+        <v>0.4522722284837963</v>
+      </c>
+      <c r="C640" t="n">
+        <v>87</v>
+      </c>
+      <c r="D640" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E640" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="F640" t="n">
+        <v>50.62932</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>37</v>
+      </c>
+      <c r="B641" s="1" t="n">
+        <v>0.452971462962963</v>
+      </c>
+      <c r="C641" t="n">
+        <v>87</v>
+      </c>
+      <c r="D641" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E641" t="n">
+        <v>23.295</v>
+      </c>
+      <c r="F641" t="n">
+        <v>50.59673999999999</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>38</v>
+      </c>
+      <c r="B642" s="1" t="n">
+        <v>0.4536667495601852</v>
+      </c>
+      <c r="C642" t="n">
+        <v>88</v>
+      </c>
+      <c r="D642" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E642" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="F642" t="n">
+        <v>52.51620000000001</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>39</v>
+      </c>
+      <c r="B643" s="1" t="n">
+        <v>0.454361216875</v>
+      </c>
+      <c r="C643" t="n">
+        <v>87</v>
+      </c>
+      <c r="D643" t="n">
+        <v>2.216</v>
+      </c>
+      <c r="E643" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F643" t="n">
+        <v>57.8376</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>40</v>
+      </c>
+      <c r="B644" s="1" t="n">
+        <v>0.4550503740393518</v>
+      </c>
+      <c r="C644" t="n">
+        <v>88</v>
+      </c>
+      <c r="D644" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E644" t="n">
+        <v>31.605</v>
+      </c>
+      <c r="F644" t="n">
+        <v>68.89890000000001</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>41</v>
+      </c>
+      <c r="B645" s="1" t="n">
+        <v>0.4557443441319444</v>
+      </c>
+      <c r="C645" t="n">
+        <v>87</v>
+      </c>
+      <c r="D645" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E645" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F645" t="n">
+        <v>68.67</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>42</v>
+      </c>
+      <c r="B646" s="1" t="n">
+        <v>0.4564385109953704</v>
+      </c>
+      <c r="C646" t="n">
+        <v>87</v>
+      </c>
+      <c r="D646" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E646" t="n">
+        <v>25.785</v>
+      </c>
+      <c r="F646" t="n">
+        <v>56.52072</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>43</v>
+      </c>
+      <c r="B647" s="1" t="n">
+        <v>0.4571312120601852</v>
+      </c>
+      <c r="C647" t="n">
+        <v>87</v>
+      </c>
+      <c r="D647" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E647" t="n">
+        <v>26.385</v>
+      </c>
+      <c r="F647" t="n">
+        <v>57.73038</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>44</v>
+      </c>
+      <c r="B648" s="1" t="n">
+        <v>0.4578261055787037</v>
+      </c>
+      <c r="C648" t="n">
+        <v>87</v>
+      </c>
+      <c r="D648" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E648" t="n">
+        <v>29.505</v>
+      </c>
+      <c r="F648" t="n">
+        <v>64.20288000000001</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>45</v>
+      </c>
+      <c r="B649" s="1" t="n">
+        <v>0.4585243238425926</v>
+      </c>
+      <c r="C649" t="n">
+        <v>87</v>
+      </c>
+      <c r="D649" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E649" t="n">
+        <v>49.98</v>
+      </c>
+      <c r="F649" t="n">
+        <v>109.956</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>46</v>
+      </c>
+      <c r="B650" s="1" t="n">
+        <v>0.4592186982291667</v>
+      </c>
+      <c r="C650" t="n">
+        <v>87</v>
+      </c>
+      <c r="D650" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="E650" t="n">
+        <v>83.06999999999999</v>
+      </c>
+      <c r="F650" t="n">
+        <v>183.08628</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>47</v>
+      </c>
+      <c r="B651" s="1" t="n">
+        <v>0.4599066425</v>
+      </c>
+      <c r="C651" t="n">
+        <v>88</v>
+      </c>
+      <c r="D651" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="E651" t="n">
+        <v>108.45</v>
+      </c>
+      <c r="F651" t="n">
+        <v>242.0604</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>48</v>
+      </c>
+      <c r="B652" s="1" t="n">
+        <v>0.4606030138541667</v>
+      </c>
+      <c r="C652" t="n">
+        <v>87</v>
+      </c>
+      <c r="D652" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="E652" t="n">
+        <v>89.565</v>
+      </c>
+      <c r="F652" t="n">
+        <v>198.8343</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>49</v>
+      </c>
+      <c r="B653" s="1" t="n">
+        <v>0.4612967987847222</v>
+      </c>
+      <c r="C653" t="n">
+        <v>87</v>
+      </c>
+      <c r="D653" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E653" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="F653" t="n">
+        <v>109.2906</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>50</v>
+      </c>
+      <c r="B654" s="1" t="n">
+        <v>0.4619950514120371</v>
+      </c>
+      <c r="C654" t="n">
+        <v>87</v>
+      </c>
+      <c r="D654" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E654" t="n">
+        <v>53.625</v>
+      </c>
+      <c r="F654" t="n">
+        <v>117.546</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>51</v>
+      </c>
+      <c r="B655" s="1" t="n">
+        <v>0.4626863204513889</v>
+      </c>
+      <c r="C655" t="n">
+        <v>87</v>
+      </c>
+      <c r="D655" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="E655" t="n">
+        <v>58.98</v>
+      </c>
+      <c r="F655" t="n">
+        <v>129.99192</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>52</v>
+      </c>
+      <c r="B656" s="1" t="n">
+        <v>0.463381652349537</v>
+      </c>
+      <c r="C656" t="n">
+        <v>88</v>
+      </c>
+      <c r="D656" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E656" t="n">
+        <v>51.645</v>
+      </c>
+      <c r="F656" t="n">
+        <v>113.20584</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>53</v>
+      </c>
+      <c r="B657" s="1" t="n">
+        <v>0.4640775261458334</v>
+      </c>
+      <c r="C657" t="n">
+        <v>87</v>
+      </c>
+      <c r="D657" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="E657" t="n">
+        <v>39.09</v>
+      </c>
+      <c r="F657" t="n">
+        <v>85.37255999999999</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>54</v>
+      </c>
+      <c r="B658" s="1" t="n">
+        <v>0.4647703413194444</v>
+      </c>
+      <c r="C658" t="n">
+        <v>87</v>
+      </c>
+      <c r="D658" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E658" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="F658" t="n">
+        <v>88.02324</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>55</v>
+      </c>
+      <c r="B659" s="1" t="n">
+        <v>0.4654639415856481</v>
+      </c>
+      <c r="C659" t="n">
+        <v>87</v>
+      </c>
+      <c r="D659" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E659" t="n">
+        <v>43.815</v>
+      </c>
+      <c r="F659" t="n">
+        <v>95.86722</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>56</v>
+      </c>
+      <c r="B660" s="1" t="n">
+        <v>0.4661545742129629</v>
+      </c>
+      <c r="C660" t="n">
+        <v>88</v>
+      </c>
+      <c r="D660" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E660" t="n">
+        <v>56.58</v>
+      </c>
+      <c r="F660" t="n">
+        <v>124.476</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>58</v>
+      </c>
+      <c r="B661" s="1" t="n">
+        <v>0.4675498550694445</v>
+      </c>
+      <c r="C661" t="n">
+        <v>87</v>
+      </c>
+      <c r="D661" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E661" t="n">
+        <v>67.875</v>
+      </c>
+      <c r="F661" t="n">
+        <v>149.325</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>59</v>
+      </c>
+      <c r="B662" s="1" t="n">
+        <v>0.4682356077430556</v>
+      </c>
+      <c r="C662" t="n">
+        <v>87</v>
+      </c>
+      <c r="D662" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E662" t="n">
+        <v>174.06</v>
+      </c>
+      <c r="F662" t="n">
+        <v>396.8568</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>61</v>
+      </c>
+      <c r="B663" s="1" t="n">
+        <v>0.4696279305324074</v>
+      </c>
+      <c r="C663" t="n">
+        <v>88</v>
+      </c>
+      <c r="D663" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E663" t="n">
+        <v>56.685</v>
+      </c>
+      <c r="F663" t="n">
+        <v>124.707</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>62</v>
+      </c>
+      <c r="B664" s="1" t="n">
+        <v>0.4703241461921296</v>
+      </c>
+      <c r="C664" t="n">
+        <v>87</v>
+      </c>
+      <c r="D664" t="n">
+        <v>2.244</v>
+      </c>
+      <c r="E664" t="n">
+        <v>129.72</v>
+      </c>
+      <c r="F664" t="n">
+        <v>291.0916800000001</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>64</v>
+      </c>
+      <c r="B665" s="1" t="n">
+        <v>0.4717058156712963</v>
+      </c>
+      <c r="C665" t="n">
+        <v>88</v>
+      </c>
+      <c r="D665" t="n">
+        <v>2.196</v>
+      </c>
+      <c r="E665" t="n">
+        <v>59.84999999999999</v>
+      </c>
+      <c r="F665" t="n">
+        <v>131.4306</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>65</v>
+      </c>
+      <c r="B666" s="1" t="n">
+        <v>0.4724092621759259</v>
+      </c>
+      <c r="C666" t="n">
+        <v>88</v>
+      </c>
+      <c r="D666" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E666" t="n">
+        <v>146.25</v>
+      </c>
+      <c r="F666" t="n">
+        <v>330.525</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>66</v>
+      </c>
+      <c r="B667" s="1" t="n">
+        <v>0.4730999414583333</v>
+      </c>
+      <c r="C667" t="n">
+        <v>88</v>
+      </c>
+      <c r="D667" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E667" t="n">
+        <v>172.53</v>
+      </c>
+      <c r="F667" t="n">
+        <v>393.3684000000001</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>70</v>
+      </c>
+      <c r="B668" s="1" t="n">
+        <v>0.4758782156018518</v>
+      </c>
+      <c r="C668" t="n">
+        <v>88</v>
+      </c>
+      <c r="D668" t="n">
+        <v>2.164</v>
+      </c>
+      <c r="E668" t="n">
+        <v>33.225</v>
+      </c>
+      <c r="F668" t="n">
+        <v>71.89890000000001</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>71</v>
+      </c>
+      <c r="B669" s="1" t="n">
+        <v>0.4765679124305556</v>
+      </c>
+      <c r="C669" t="n">
+        <v>88</v>
+      </c>
+      <c r="D669" t="n">
+        <v>2.164</v>
+      </c>
+      <c r="E669" t="n">
+        <v>27.63</v>
+      </c>
+      <c r="F669" t="n">
+        <v>59.79132</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>74</v>
+      </c>
+      <c r="B670" s="1" t="n">
+        <v>0.4786486383680556</v>
+      </c>
+      <c r="C670" t="n">
+        <v>88</v>
+      </c>
+      <c r="D670" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E670" t="n">
+        <v>148.185</v>
+      </c>
+      <c r="F670" t="n">
+        <v>334.8981</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>75</v>
+      </c>
+      <c r="B671" s="1" t="n">
+        <v>0.4793410837962963</v>
+      </c>
+      <c r="C671" t="n">
+        <v>88</v>
+      </c>
+      <c r="D671" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="E671" t="n">
+        <v>108.69</v>
+      </c>
+      <c r="F671" t="n">
+        <v>242.59608</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>77</v>
+      </c>
+      <c r="B672" s="1" t="n">
+        <v>0.4807374982986111</v>
+      </c>
+      <c r="C672" t="n">
+        <v>88</v>
+      </c>
+      <c r="D672" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E672" t="n">
+        <v>26.055</v>
+      </c>
+      <c r="F672" t="n">
+        <v>56.48724</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>78</v>
+      </c>
+      <c r="B673" s="1" t="n">
+        <v>0.4814267797453703</v>
+      </c>
+      <c r="C673" t="n">
+        <v>88</v>
+      </c>
+      <c r="D673" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="E673" t="n">
+        <v>29.445</v>
+      </c>
+      <c r="F673" t="n">
+        <v>64.30788000000001</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>79</v>
+      </c>
+      <c r="B674" s="1" t="n">
+        <v>0.4821246390972222</v>
+      </c>
+      <c r="C674" t="n">
+        <v>88</v>
+      </c>
+      <c r="D674" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E674" t="n">
+        <v>33.945</v>
+      </c>
+      <c r="F674" t="n">
+        <v>73.86432000000001</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>81</v>
+      </c>
+      <c r="B675" s="1" t="n">
+        <v>0.4835065379629629</v>
+      </c>
+      <c r="C675" t="n">
+        <v>88</v>
+      </c>
+      <c r="D675" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E675" t="n">
+        <v>55.755</v>
+      </c>
+      <c r="F675" t="n">
+        <v>122.21496</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>83</v>
+      </c>
+      <c r="B676" s="1" t="n">
+        <v>0.4848985380208333</v>
+      </c>
+      <c r="C676" t="n">
+        <v>88</v>
+      </c>
+      <c r="D676" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E676" t="n">
+        <v>70.605</v>
+      </c>
+      <c r="F676" t="n">
+        <v>155.331</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>84</v>
+      </c>
+      <c r="B677" s="1" t="n">
+        <v>0.485591988587963</v>
+      </c>
+      <c r="C677" t="n">
+        <v>88</v>
+      </c>
+      <c r="D677" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="E677" t="n">
+        <v>72.27</v>
+      </c>
+      <c r="F677" t="n">
+        <v>159.57216</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>85</v>
+      </c>
+      <c r="B678" s="1" t="n">
+        <v>0.4862828257638889</v>
+      </c>
+      <c r="C678" t="n">
+        <v>88</v>
+      </c>
+      <c r="D678" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="E678" t="n">
+        <v>89.205</v>
+      </c>
+      <c r="F678" t="n">
+        <v>198.0351</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>86</v>
+      </c>
+      <c r="B679" s="1" t="n">
+        <v>0.4869761468634259</v>
+      </c>
+      <c r="C679" t="n">
+        <v>88</v>
+      </c>
+      <c r="D679" t="n">
+        <v>2.196</v>
+      </c>
+      <c r="E679" t="n">
+        <v>39.105</v>
+      </c>
+      <c r="F679" t="n">
+        <v>85.87457999999999</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>89</v>
+      </c>
+      <c r="B680" s="1" t="n">
+        <v>0.4890592235648148</v>
+      </c>
+      <c r="C680" t="n">
+        <v>88</v>
+      </c>
+      <c r="D680" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E680" t="n">
+        <v>34.995</v>
+      </c>
+      <c r="F680" t="n">
+        <v>76.00914</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>90</v>
+      </c>
+      <c r="B681" s="1" t="n">
+        <v>0.4897599803125</v>
+      </c>
+      <c r="C681" t="n">
+        <v>88</v>
+      </c>
+      <c r="D681" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E681" t="n">
+        <v>30.825</v>
+      </c>
+      <c r="F681" t="n">
+        <v>67.07520000000001</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>91</v>
+      </c>
+      <c r="B682" s="1" t="n">
+        <v>0.4904469526620371</v>
+      </c>
+      <c r="C682" t="n">
+        <v>88</v>
+      </c>
+      <c r="D682" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E682" t="n">
+        <v>28.035</v>
+      </c>
+      <c r="F682" t="n">
+        <v>61.45272000000001</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>92</v>
+      </c>
+      <c r="B683" s="1" t="n">
+        <v>0.4911449069560185</v>
+      </c>
+      <c r="C683" t="n">
+        <v>88</v>
+      </c>
+      <c r="D683" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E683" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="F683" t="n">
+        <v>58.49088</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>93</v>
+      </c>
+      <c r="B684" s="1" t="n">
+        <v>0.4918355082060185</v>
+      </c>
+      <c r="C684" t="n">
+        <v>88</v>
+      </c>
+      <c r="D684" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E684" t="n">
+        <v>27.075</v>
+      </c>
+      <c r="F684" t="n">
+        <v>59.2401</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>94</v>
+      </c>
+      <c r="B685" s="1" t="n">
+        <v>0.4925300376967593</v>
+      </c>
+      <c r="C685" t="n">
+        <v>88</v>
+      </c>
+      <c r="D685" t="n">
+        <v>2.164</v>
+      </c>
+      <c r="E685" t="n">
+        <v>29.145</v>
+      </c>
+      <c r="F685" t="n">
+        <v>63.06978000000001</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>95</v>
+      </c>
+      <c r="B686" s="1" t="n">
+        <v>0.4932287547685185</v>
+      </c>
+      <c r="C686" t="n">
+        <v>88</v>
+      </c>
+      <c r="D686" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E686" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="F686" t="n">
+        <v>65.3652</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>96</v>
+      </c>
+      <c r="B687" s="1" t="n">
+        <v>0.4939222719097223</v>
+      </c>
+      <c r="C687" t="n">
+        <v>88</v>
+      </c>
+      <c r="D687" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E687" t="n">
+        <v>29.715</v>
+      </c>
+      <c r="F687" t="n">
+        <v>65.13528000000001</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>97</v>
+      </c>
+      <c r="B688" s="1" t="n">
+        <v>0.494617087662037</v>
+      </c>
+      <c r="C688" t="n">
+        <v>88</v>
+      </c>
+      <c r="D688" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E688" t="n">
+        <v>29.325</v>
+      </c>
+      <c r="F688" t="n">
+        <v>63.81120000000001</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>98</v>
+      </c>
+      <c r="B689" s="1" t="n">
+        <v>0.4953128689930556</v>
+      </c>
+      <c r="C689" t="n">
+        <v>88</v>
+      </c>
+      <c r="D689" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E689" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="F689" t="n">
+        <v>64.7148</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>99</v>
+      </c>
+      <c r="B690" s="1" t="n">
+        <v>0.4960076183101852</v>
+      </c>
+      <c r="C690" t="n">
+        <v>88</v>
+      </c>
+      <c r="D690" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E690" t="n">
+        <v>28.485</v>
+      </c>
+      <c r="F690" t="n">
+        <v>61.98336</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>100</v>
+      </c>
+      <c r="B691" s="1" t="n">
+        <v>0.4966999176157408</v>
+      </c>
+      <c r="C691" t="n">
+        <v>88</v>
+      </c>
+      <c r="D691" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E691" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="F691" t="n">
+        <v>56.71296</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>101</v>
+      </c>
+      <c r="B692" s="1" t="n">
+        <v>0.4973944325231481</v>
+      </c>
+      <c r="C692" t="n">
+        <v>88</v>
+      </c>
+      <c r="D692" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E692" t="n">
+        <v>24.375</v>
+      </c>
+      <c r="F692" t="n">
+        <v>53.04</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>102</v>
+      </c>
+      <c r="B693" s="1" t="n">
+        <v>0.4980891646412037</v>
+      </c>
+      <c r="C693" t="n">
+        <v>88</v>
+      </c>
+      <c r="D693" t="n">
+        <v>2.164</v>
+      </c>
+      <c r="E693" t="n">
+        <v>26.685</v>
+      </c>
+      <c r="F693" t="n">
+        <v>57.74634</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>103</v>
+      </c>
+      <c r="B694" s="1" t="n">
+        <v>0.4987858764236111</v>
+      </c>
+      <c r="C694" t="n">
+        <v>88</v>
+      </c>
+      <c r="D694" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E694" t="n">
+        <v>34.995</v>
+      </c>
+      <c r="F694" t="n">
+        <v>76.70904</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>104</v>
+      </c>
+      <c r="B695" s="1" t="n">
+        <v>0.4994765495486111</v>
+      </c>
+      <c r="C695" t="n">
+        <v>88</v>
+      </c>
+      <c r="D695" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="E695" t="n">
+        <v>33.855</v>
+      </c>
+      <c r="F695" t="n">
+        <v>73.93932</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>105</v>
+      </c>
+      <c r="B696" s="1" t="n">
+        <v>0.5001641906018519</v>
+      </c>
+      <c r="C696" t="n">
+        <v>88</v>
+      </c>
+      <c r="D696" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E696" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="F696" t="n">
+        <v>55.8144</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>106</v>
+      </c>
+      <c r="B697" s="1" t="n">
+        <v>0.5008603566782408</v>
+      </c>
+      <c r="C697" t="n">
+        <v>88</v>
+      </c>
+      <c r="D697" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E697" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="F697" t="n">
+        <v>48.83616000000001</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>107</v>
+      </c>
+      <c r="B698" s="1" t="n">
+        <v>0.5015590295023148</v>
+      </c>
+      <c r="C698" t="n">
+        <v>88</v>
+      </c>
+      <c r="D698" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="E698" t="n">
+        <v>20.715</v>
+      </c>
+      <c r="F698" t="n">
+        <v>45.24156</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>108</v>
+      </c>
+      <c r="B699" s="1" t="n">
+        <v>0.5022550166550926</v>
+      </c>
+      <c r="C699" t="n">
+        <v>88</v>
+      </c>
+      <c r="D699" t="n">
+        <v>2.136</v>
+      </c>
+      <c r="E699" t="n">
+        <v>18.105</v>
+      </c>
+      <c r="F699" t="n">
+        <v>38.67228</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>109</v>
+      </c>
+      <c r="B700" s="1" t="n">
+        <v>0.5029413053703704</v>
+      </c>
+      <c r="C700" t="n">
+        <v>88</v>
+      </c>
+      <c r="D700" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E700" t="n">
+        <v>14.385</v>
+      </c>
+      <c r="F700" t="n">
+        <v>31.30176</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>110</v>
+      </c>
+      <c r="B701" s="1" t="n">
+        <v>0.5036349504282407</v>
+      </c>
+      <c r="C701" t="n">
+        <v>88</v>
+      </c>
+      <c r="D701" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E701" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="F701" t="n">
+        <v>25.71216</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>111</v>
+      </c>
+      <c r="B702" s="1" t="n">
+        <v>0.5043310964236111</v>
+      </c>
+      <c r="C702" t="n">
+        <v>88</v>
+      </c>
+      <c r="D702" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E702" t="n">
+        <v>10.185</v>
+      </c>
+      <c r="F702" t="n">
+        <v>21.9996</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>112</v>
+      </c>
+      <c r="B703" s="1" t="n">
+        <v>0.5050296823842593</v>
+      </c>
+      <c r="C703" t="n">
+        <v>88</v>
+      </c>
+      <c r="D703" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E703" t="n">
+        <v>9.074999999999999</v>
+      </c>
+      <c r="F703" t="n">
+        <v>19.6746</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>113</v>
+      </c>
+      <c r="B704" s="1" t="n">
+        <v>0.5057231542824074</v>
+      </c>
+      <c r="C704" t="n">
+        <v>88</v>
+      </c>
+      <c r="D704" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="E704" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="F704" t="n">
+        <v>18.41112</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>114</v>
+      </c>
+      <c r="B705" s="1" t="n">
+        <v>0.506418735474537</v>
+      </c>
+      <c r="C705" t="n">
+        <v>88</v>
+      </c>
+      <c r="D705" t="n">
+        <v>2.156</v>
+      </c>
+      <c r="E705" t="n">
+        <v>8.084999999999999</v>
+      </c>
+      <c r="F705" t="n">
+        <v>17.43126</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>115</v>
+      </c>
+      <c r="B706" s="1" t="n">
+        <v>0.5071059894791666</v>
+      </c>
+      <c r="C706" t="n">
+        <v>88</v>
+      </c>
+      <c r="D706" t="n">
+        <v>2.228</v>
+      </c>
+      <c r="E706" t="n">
+        <v>8.145</v>
+      </c>
+      <c r="F706" t="n">
+        <v>18.14706</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>116</v>
+      </c>
+      <c r="B707" s="1" t="n">
+        <v>0.5078075479629629</v>
+      </c>
+      <c r="C707" t="n">
+        <v>88</v>
+      </c>
+      <c r="D707" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E707" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="F707" t="n">
+        <v>19.6344</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>117</v>
+      </c>
+      <c r="B708" s="1" t="n">
+        <v>0.5084938898611111</v>
+      </c>
+      <c r="C708" t="n">
+        <v>88</v>
+      </c>
+      <c r="D708" t="n">
+        <v>2.196</v>
+      </c>
+      <c r="E708" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="F708" t="n">
+        <v>24.24384</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>118</v>
+      </c>
+      <c r="B709" s="1" t="n">
+        <v>0.5091928233217593</v>
+      </c>
+      <c r="C709" t="n">
+        <v>88</v>
+      </c>
+      <c r="D709" t="n">
+        <v>2.144</v>
+      </c>
+      <c r="E709" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="F709" t="n">
+        <v>29.32992</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>119</v>
+      </c>
+      <c r="B710" s="1" t="n">
+        <v>0.5098816832523149</v>
+      </c>
+      <c r="C710" t="n">
+        <v>88</v>
+      </c>
+      <c r="D710" t="n">
+        <v>2.216</v>
+      </c>
+      <c r="E710" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="F710" t="n">
+        <v>33.04056</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>120</v>
+      </c>
+      <c r="B711" s="1" t="n">
+        <v>0.5105834188888889</v>
+      </c>
+      <c r="C711" t="n">
+        <v>88</v>
+      </c>
+      <c r="D711" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="E711" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="F711" t="n">
+        <v>32.65632</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>121</v>
+      </c>
+      <c r="B712" s="1" t="n">
+        <v>0.5112701230439815</v>
+      </c>
+      <c r="C712" t="n">
+        <v>88</v>
+      </c>
+      <c r="D712" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="E712" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F712" t="n">
+        <v>31.968</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>122</v>
+      </c>
+      <c r="B713" s="1" t="n">
+        <v>0.5119724203587963</v>
+      </c>
+      <c r="C713" t="n">
+        <v>88</v>
+      </c>
+      <c r="D713" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E713" t="n">
+        <v>13.995</v>
+      </c>
+      <c r="F713" t="n">
+        <v>30.45312</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>123</v>
+      </c>
+      <c r="B714" s="1" t="n">
+        <v>0.5126594245138889</v>
+      </c>
+      <c r="C714" t="n">
+        <v>88</v>
+      </c>
+      <c r="D714" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E714" t="n">
+        <v>13.665</v>
+      </c>
+      <c r="F714" t="n">
+        <v>29.2431</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>124</v>
+      </c>
+      <c r="B715" s="1" t="n">
+        <v>0.5133536488541667</v>
+      </c>
+      <c r="C715" t="n">
+        <v>88</v>
+      </c>
+      <c r="D715" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E715" t="n">
+        <v>13.995</v>
+      </c>
+      <c r="F715" t="n">
+        <v>30.789</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>125</v>
+      </c>
+      <c r="B716" s="1" t="n">
+        <v>0.5140478801967593</v>
+      </c>
+      <c r="C716" t="n">
+        <v>88</v>
+      </c>
+      <c r="D716" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="E716" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="F716" t="n">
+        <v>31.06008</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>126</v>
+      </c>
+      <c r="B717" s="1" t="n">
+        <v>0.5147472926041667</v>
+      </c>
+      <c r="C717" t="n">
+        <v>88</v>
+      </c>
+      <c r="D717" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="E717" t="n">
+        <v>15.135</v>
+      </c>
+      <c r="F717" t="n">
+        <v>33.41808</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>127</v>
+      </c>
+      <c r="B718" s="1" t="n">
+        <v>0.5154408599305556</v>
+      </c>
+      <c r="C718" t="n">
+        <v>88</v>
+      </c>
+      <c r="D718" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E718" t="n">
+        <v>15.465</v>
+      </c>
+      <c r="F718" t="n">
+        <v>33.83742</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>128</v>
+      </c>
+      <c r="B719" s="1" t="n">
+        <v>0.5161347750347223</v>
+      </c>
+      <c r="C719" t="n">
+        <v>88</v>
+      </c>
+      <c r="D719" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E719" t="n">
+        <v>14.565</v>
+      </c>
+      <c r="F719" t="n">
+        <v>31.63518</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>129</v>
+      </c>
+      <c r="B720" s="1" t="n">
+        <v>0.516826397974537</v>
+      </c>
+      <c r="C720" t="n">
+        <v>88</v>
+      </c>
+      <c r="D720" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E720" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="F720" t="n">
+        <v>27.88848</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>130</v>
+      </c>
+      <c r="B721" s="1" t="n">
+        <v>0.5175167406944444</v>
+      </c>
+      <c r="C721" t="n">
+        <v>88</v>
+      </c>
+      <c r="D721" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E721" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="F721" t="n">
+        <v>24.615</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>131</v>
+      </c>
+      <c r="B722" s="1" t="n">
+        <v>0.5182154556712962</v>
+      </c>
+      <c r="C722" t="n">
+        <v>88</v>
+      </c>
+      <c r="D722" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="E722" t="n">
+        <v>9.959999999999999</v>
+      </c>
+      <c r="F722" t="n">
+        <v>21.75264</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>0</v>
+      </c>
+      <c r="B723" s="1" t="n">
+        <v>0.5521990422222223</v>
+      </c>
+      <c r="C723" t="n">
+        <v>88</v>
+      </c>
+      <c r="D723" t="n">
+        <v>6.092000000000001</v>
+      </c>
+      <c r="E723" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F723" t="n">
+        <v>20.83464</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>1</v>
+      </c>
+      <c r="B724" s="1" t="n">
+        <v>0.5528935012268519</v>
+      </c>
+      <c r="C724" t="n">
+        <v>88</v>
+      </c>
+      <c r="D724" t="n">
+        <v>5.668</v>
+      </c>
+      <c r="E724" t="n">
+        <v>3.195</v>
+      </c>
+      <c r="F724" t="n">
+        <v>18.10926</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>0</v>
+      </c>
+      <c r="B725" s="1" t="n">
+        <v>0.5539563662384259</v>
+      </c>
+      <c r="C725" t="n">
+        <v>88</v>
+      </c>
+      <c r="D725" t="n">
+        <v>6.124000000000001</v>
+      </c>
+      <c r="E725" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F725" t="n">
+        <v>20.94408</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>1</v>
+      </c>
+      <c r="B726" s="1" t="n">
+        <v>0.5546505501157407</v>
+      </c>
+      <c r="C726" t="n">
+        <v>88</v>
+      </c>
+      <c r="D726" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E726" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F726" t="n">
+        <v>18.207</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>2</v>
+      </c>
+      <c r="B727" s="1" t="n">
+        <v>0.5553446970717593</v>
+      </c>
+      <c r="C727" t="n">
+        <v>88</v>
+      </c>
+      <c r="D727" t="n">
+        <v>5.816</v>
+      </c>
+      <c r="E727" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="F727" t="n">
+        <v>18.05868</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>3</v>
+      </c>
+      <c r="B728" s="1" t="n">
+        <v>0.5560387403009259</v>
+      </c>
+      <c r="C728" t="n">
+        <v>88</v>
+      </c>
+      <c r="D728" t="n">
+        <v>5.828</v>
+      </c>
+      <c r="E728" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="F728" t="n">
+        <v>18.09594</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>4</v>
+      </c>
+      <c r="B729" s="1" t="n">
+        <v>0.5567325144328704</v>
+      </c>
+      <c r="C729" t="n">
+        <v>88</v>
+      </c>
+      <c r="D729" t="n">
+        <v>1.532</v>
+      </c>
+      <c r="E729" t="n">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="F729" t="n">
+        <v>1.24092</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>5</v>
+      </c>
+      <c r="B730" s="1" t="n">
+        <v>0.557426614537037</v>
+      </c>
+      <c r="C730" t="n">
+        <v>88</v>
+      </c>
+      <c r="D730" t="n">
+        <v>0</v>
+      </c>
+      <c r="E730" t="n">
+        <v>0</v>
+      </c>
+      <c r="F730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>6</v>
+      </c>
+      <c r="B731" s="1" t="n">
+        <v>0.5581211767476852</v>
+      </c>
+      <c r="C731" t="n">
+        <v>88</v>
+      </c>
+      <c r="D731" t="n">
+        <v>0</v>
+      </c>
+      <c r="E731" t="n">
+        <v>0</v>
+      </c>
+      <c r="F731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>7</v>
+      </c>
+      <c r="B732" s="1" t="n">
+        <v>0.5588148032060185</v>
+      </c>
+      <c r="C732" t="n">
+        <v>88</v>
+      </c>
+      <c r="D732" t="n">
+        <v>0</v>
+      </c>
+      <c r="E732" t="n">
+        <v>0</v>
+      </c>
+      <c r="F732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>8</v>
+      </c>
+      <c r="B733" s="1" t="n">
+        <v>0.5595090895138889</v>
+      </c>
+      <c r="C733" t="n">
+        <v>88</v>
+      </c>
+      <c r="D733" t="n">
+        <v>0</v>
+      </c>
+      <c r="E733" t="n">
+        <v>0</v>
+      </c>
+      <c r="F733" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>9</v>
+      </c>
+      <c r="B734" s="1" t="n">
+        <v>0.560203027974537</v>
+      </c>
+      <c r="C734" t="n">
+        <v>88</v>
+      </c>
+      <c r="D734" t="n">
+        <v>0</v>
+      </c>
+      <c r="E734" t="n">
+        <v>0</v>
+      </c>
+      <c r="F734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>10</v>
+      </c>
+      <c r="B735" s="1" t="n">
+        <v>0.5608975332060185</v>
+      </c>
+      <c r="C735" t="n">
+        <v>88</v>
+      </c>
+      <c r="D735" t="n">
+        <v>0</v>
+      </c>
+      <c r="E735" t="n">
+        <v>0</v>
+      </c>
+      <c r="F735" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>11</v>
+      </c>
+      <c r="B736" s="1" t="n">
+        <v>0.5615911605439815</v>
+      </c>
+      <c r="C736" t="n">
+        <v>88</v>
+      </c>
+      <c r="D736" t="n">
+        <v>0</v>
+      </c>
+      <c r="E736" t="n">
+        <v>0</v>
+      </c>
+      <c r="F736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>12</v>
+      </c>
+      <c r="B737" s="1" t="n">
+        <v>0.5622852391203704</v>
+      </c>
+      <c r="C737" t="n">
+        <v>88</v>
+      </c>
+      <c r="D737" t="n">
+        <v>0</v>
+      </c>
+      <c r="E737" t="n">
+        <v>0</v>
+      </c>
+      <c r="F737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>13</v>
+      </c>
+      <c r="B738" s="1" t="n">
+        <v>0.5629795214120371</v>
+      </c>
+      <c r="C738" t="n">
+        <v>88</v>
+      </c>
+      <c r="D738" t="n">
+        <v>0</v>
+      </c>
+      <c r="E738" t="n">
+        <v>0</v>
+      </c>
+      <c r="F738" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>14</v>
+      </c>
+      <c r="B739" s="1" t="n">
+        <v>0.5636738609143519</v>
+      </c>
+      <c r="C739" t="n">
+        <v>88</v>
+      </c>
+      <c r="D739" t="n">
+        <v>0</v>
+      </c>
+      <c r="E739" t="n">
+        <v>0</v>
+      </c>
+      <c r="F739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>15</v>
+      </c>
+      <c r="B740" s="1" t="n">
+        <v>0.5643673960069444</v>
+      </c>
+      <c r="C740" t="n">
+        <v>88</v>
+      </c>
+      <c r="D740" t="n">
+        <v>0</v>
+      </c>
+      <c r="E740" t="n">
+        <v>0</v>
+      </c>
+      <c r="F740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>16</v>
+      </c>
+      <c r="B741" s="1" t="n">
+        <v>0.5650620271412037</v>
+      </c>
+      <c r="C741" t="n">
+        <v>88</v>
+      </c>
+      <c r="D741" t="n">
+        <v>0</v>
+      </c>
+      <c r="E741" t="n">
+        <v>0</v>
+      </c>
+      <c r="F741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>17</v>
+      </c>
+      <c r="B742" s="1" t="n">
+        <v>0.5657560812152778</v>
+      </c>
+      <c r="C742" t="n">
+        <v>88</v>
+      </c>
+      <c r="D742" t="n">
+        <v>0</v>
+      </c>
+      <c r="E742" t="n">
+        <v>0</v>
+      </c>
+      <c r="F742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>18</v>
+      </c>
+      <c r="B743" s="1" t="n">
+        <v>0.5664506075694444</v>
+      </c>
+      <c r="C743" t="n">
+        <v>88</v>
+      </c>
+      <c r="D743" t="n">
+        <v>0</v>
+      </c>
+      <c r="E743" t="n">
+        <v>0</v>
+      </c>
+      <c r="F743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>19</v>
+      </c>
+      <c r="B744" s="1" t="n">
+        <v>0.5671434719791666</v>
+      </c>
+      <c r="C744" t="n">
+        <v>88</v>
+      </c>
+      <c r="D744" t="n">
+        <v>0</v>
+      </c>
+      <c r="E744" t="n">
+        <v>0</v>
+      </c>
+      <c r="F744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>20</v>
+      </c>
+      <c r="B745" s="1" t="n">
+        <v>0.5678388525462963</v>
+      </c>
+      <c r="C745" t="n">
+        <v>88</v>
+      </c>
+      <c r="D745" t="n">
+        <v>0</v>
+      </c>
+      <c r="E745" t="n">
+        <v>0</v>
+      </c>
+      <c r="F745" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>21</v>
+      </c>
+      <c r="B746" s="1" t="n">
+        <v>0.568531855162037</v>
+      </c>
+      <c r="C746" t="n">
+        <v>88</v>
+      </c>
+      <c r="D746" t="n">
+        <v>0</v>
+      </c>
+      <c r="E746" t="n">
+        <v>0</v>
+      </c>
+      <c r="F746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>22</v>
+      </c>
+      <c r="B747" s="1" t="n">
+        <v>0.5692267508449074</v>
+      </c>
+      <c r="C747" t="n">
+        <v>88</v>
+      </c>
+      <c r="D747" t="n">
+        <v>0</v>
+      </c>
+      <c r="E747" t="n">
+        <v>0</v>
+      </c>
+      <c r="F747" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>23</v>
+      </c>
+      <c r="B748" s="1" t="n">
+        <v>0.569925443900463</v>
+      </c>
+      <c r="C748" t="n">
+        <v>88</v>
+      </c>
+      <c r="D748" t="n">
+        <v>0</v>
+      </c>
+      <c r="E748" t="n">
+        <v>0</v>
+      </c>
+      <c r="F748" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>24</v>
+      </c>
+      <c r="B749" s="1" t="n">
+        <v>0.5706155143865741</v>
+      </c>
+      <c r="C749" t="n">
+        <v>88</v>
+      </c>
+      <c r="D749" t="n">
+        <v>0</v>
+      </c>
+      <c r="E749" t="n">
+        <v>0</v>
+      </c>
+      <c r="F749" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>25</v>
+      </c>
+      <c r="B750" s="1" t="n">
+        <v>0.5713085776388889</v>
+      </c>
+      <c r="C750" t="n">
+        <v>88</v>
+      </c>
+      <c r="D750" t="n">
+        <v>0</v>
+      </c>
+      <c r="E750" t="n">
+        <v>0</v>
+      </c>
+      <c r="F750" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>26</v>
+      </c>
+      <c r="B751" s="1" t="n">
+        <v>0.5720034052546296</v>
+      </c>
+      <c r="C751" t="n">
+        <v>88</v>
+      </c>
+      <c r="D751" t="n">
+        <v>0</v>
+      </c>
+      <c r="E751" t="n">
+        <v>0</v>
+      </c>
+      <c r="F751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>27</v>
+      </c>
+      <c r="B752" s="1" t="n">
+        <v>0.5726974705324074</v>
+      </c>
+      <c r="C752" t="n">
+        <v>88</v>
+      </c>
+      <c r="D752" t="n">
+        <v>0</v>
+      </c>
+      <c r="E752" t="n">
+        <v>0</v>
+      </c>
+      <c r="F752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>28</v>
+      </c>
+      <c r="B753" s="1" t="n">
+        <v>0.5733926552893519</v>
+      </c>
+      <c r="C753" t="n">
+        <v>88</v>
+      </c>
+      <c r="D753" t="n">
+        <v>0</v>
+      </c>
+      <c r="E753" t="n">
+        <v>0</v>
+      </c>
+      <c r="F753" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>29</v>
+      </c>
+      <c r="B754" s="1" t="n">
+        <v>0.5740852772453704</v>
+      </c>
+      <c r="C754" t="n">
+        <v>88</v>
+      </c>
+      <c r="D754" t="n">
+        <v>0</v>
+      </c>
+      <c r="E754" t="n">
+        <v>0</v>
+      </c>
+      <c r="F754" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>30</v>
+      </c>
+      <c r="B755" s="1" t="n">
+        <v>0.5747794920138889</v>
+      </c>
+      <c r="C755" t="n">
+        <v>88</v>
+      </c>
+      <c r="D755" t="n">
+        <v>0</v>
+      </c>
+      <c r="E755" t="n">
+        <v>0</v>
+      </c>
+      <c r="F755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>31</v>
+      </c>
+      <c r="B756" s="1" t="n">
+        <v>0.5754733828472223</v>
+      </c>
+      <c r="C756" t="n">
+        <v>88</v>
+      </c>
+      <c r="D756" t="n">
+        <v>0</v>
+      </c>
+      <c r="E756" t="n">
+        <v>0</v>
+      </c>
+      <c r="F756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>32</v>
+      </c>
+      <c r="B757" s="1" t="n">
+        <v>0.5761680952662037</v>
+      </c>
+      <c r="C757" t="n">
+        <v>88</v>
+      </c>
+      <c r="D757" t="n">
+        <v>0</v>
+      </c>
+      <c r="E757" t="n">
+        <v>0</v>
+      </c>
+      <c r="F757" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>33</v>
+      </c>
+      <c r="B758" s="1" t="n">
+        <v>0.5768613649537037</v>
+      </c>
+      <c r="C758" t="n">
+        <v>88</v>
+      </c>
+      <c r="D758" t="n">
+        <v>0</v>
+      </c>
+      <c r="E758" t="n">
+        <v>0</v>
+      </c>
+      <c r="F758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>34</v>
+      </c>
+      <c r="B759" s="1" t="n">
+        <v>0.5775563641435185</v>
+      </c>
+      <c r="C759" t="n">
+        <v>88</v>
+      </c>
+      <c r="D759" t="n">
+        <v>0</v>
+      </c>
+      <c r="E759" t="n">
+        <v>0</v>
+      </c>
+      <c r="F759" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>35</v>
+      </c>
+      <c r="B760" s="1" t="n">
+        <v>0.5782507991550926</v>
+      </c>
+      <c r="C760" t="n">
+        <v>88</v>
+      </c>
+      <c r="D760" t="n">
+        <v>0</v>
+      </c>
+      <c r="E760" t="n">
+        <v>0</v>
+      </c>
+      <c r="F760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>36</v>
+      </c>
+      <c r="B761" s="1" t="n">
+        <v>0.5789455345833333</v>
+      </c>
+      <c r="C761" t="n">
+        <v>88</v>
+      </c>
+      <c r="D761" t="n">
+        <v>0</v>
+      </c>
+      <c r="E761" t="n">
+        <v>0</v>
+      </c>
+      <c r="F761" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>37</v>
+      </c>
+      <c r="B762" s="1" t="n">
+        <v>0.5796381903703705</v>
+      </c>
+      <c r="C762" t="n">
+        <v>88</v>
+      </c>
+      <c r="D762" t="n">
+        <v>0</v>
+      </c>
+      <c r="E762" t="n">
+        <v>0</v>
+      </c>
+      <c r="F762" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>38</v>
+      </c>
+      <c r="B763" s="1" t="n">
+        <v>0.5803318858564814</v>
+      </c>
+      <c r="C763" t="n">
+        <v>88</v>
+      </c>
+      <c r="D763" t="n">
+        <v>0</v>
+      </c>
+      <c r="E763" t="n">
+        <v>0</v>
+      </c>
+      <c r="F763" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>39</v>
+      </c>
+      <c r="B764" s="1" t="n">
+        <v>0.5810259961574075</v>
+      </c>
+      <c r="C764" t="n">
+        <v>88</v>
+      </c>
+      <c r="D764" t="n">
+        <v>0</v>
+      </c>
+      <c r="E764" t="n">
+        <v>0</v>
+      </c>
+      <c r="F764" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>40</v>
+      </c>
+      <c r="B765" s="1" t="n">
+        <v>0.5817198420601852</v>
+      </c>
+      <c r="C765" t="n">
+        <v>88</v>
+      </c>
+      <c r="D765" t="n">
+        <v>0</v>
+      </c>
+      <c r="E765" t="n">
+        <v>0</v>
+      </c>
+      <c r="F765" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>41</v>
+      </c>
+      <c r="B766" s="1" t="n">
+        <v>0.5824147263078704</v>
+      </c>
+      <c r="C766" t="n">
+        <v>88</v>
+      </c>
+      <c r="D766" t="n">
+        <v>0</v>
+      </c>
+      <c r="E766" t="n">
+        <v>0</v>
+      </c>
+      <c r="F766" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>42</v>
+      </c>
+      <c r="B767" s="1" t="n">
+        <v>0.5831084102083333</v>
+      </c>
+      <c r="C767" t="n">
+        <v>88</v>
+      </c>
+      <c r="D767" t="n">
+        <v>0</v>
+      </c>
+      <c r="E767" t="n">
+        <v>0</v>
+      </c>
+      <c r="F767" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>43</v>
+      </c>
+      <c r="B768" s="1" t="n">
+        <v>0.5838062504861111</v>
+      </c>
+      <c r="C768" t="n">
+        <v>88</v>
+      </c>
+      <c r="D768" t="n">
+        <v>0</v>
+      </c>
+      <c r="E768" t="n">
+        <v>0</v>
+      </c>
+      <c r="F768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>44</v>
+      </c>
+      <c r="B769" s="1" t="n">
+        <v>0.5844964818055556</v>
+      </c>
+      <c r="C769" t="n">
+        <v>88</v>
+      </c>
+      <c r="D769" t="n">
+        <v>0</v>
+      </c>
+      <c r="E769" t="n">
+        <v>0</v>
+      </c>
+      <c r="F769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>45</v>
+      </c>
+      <c r="B770" s="1" t="n">
+        <v>0.5851901417245371</v>
+      </c>
+      <c r="C770" t="n">
+        <v>88</v>
+      </c>
+      <c r="D770" t="n">
+        <v>0</v>
+      </c>
+      <c r="E770" t="n">
+        <v>0</v>
+      </c>
+      <c r="F770" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>46</v>
+      </c>
+      <c r="B771" s="1" t="n">
+        <v>0.5858853388888889</v>
+      </c>
+      <c r="C771" t="n">
+        <v>88</v>
+      </c>
+      <c r="D771" t="n">
+        <v>0</v>
+      </c>
+      <c r="E771" t="n">
+        <v>0</v>
+      </c>
+      <c r="F771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>47</v>
+      </c>
+      <c r="B772" s="1" t="n">
+        <v>0.5865794845949074</v>
+      </c>
+      <c r="C772" t="n">
+        <v>88</v>
+      </c>
+      <c r="D772" t="n">
+        <v>0</v>
+      </c>
+      <c r="E772" t="n">
+        <v>0</v>
+      </c>
+      <c r="F772" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>48</v>
+      </c>
+      <c r="B773" s="1" t="n">
+        <v>0.5872729479050927</v>
+      </c>
+      <c r="C773" t="n">
+        <v>88</v>
+      </c>
+      <c r="D773" t="n">
+        <v>0</v>
+      </c>
+      <c r="E773" t="n">
+        <v>0</v>
+      </c>
+      <c r="F773" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>49</v>
+      </c>
+      <c r="B774" s="1" t="n">
+        <v>0.58796768125</v>
+      </c>
+      <c r="C774" t="n">
+        <v>88</v>
+      </c>
+      <c r="D774" t="n">
+        <v>0</v>
+      </c>
+      <c r="E774" t="n">
+        <v>0</v>
+      </c>
+      <c r="F774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>50</v>
+      </c>
+      <c r="B775" s="1" t="n">
+        <v>0.5886619545023148</v>
+      </c>
+      <c r="C775" t="n">
+        <v>88</v>
+      </c>
+      <c r="D775" t="n">
+        <v>0</v>
+      </c>
+      <c r="E775" t="n">
+        <v>0</v>
+      </c>
+      <c r="F775" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>51</v>
+      </c>
+      <c r="B776" s="1" t="n">
+        <v>0.5893554995717593</v>
+      </c>
+      <c r="C776" t="n">
+        <v>88</v>
+      </c>
+      <c r="D776" t="n">
+        <v>0</v>
+      </c>
+      <c r="E776" t="n">
+        <v>0</v>
+      </c>
+      <c r="F776" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>52</v>
+      </c>
+      <c r="B777" s="1" t="n">
+        <v>0.5900573661921297</v>
+      </c>
+      <c r="C777" t="n">
+        <v>88</v>
+      </c>
+      <c r="D777" t="n">
+        <v>0</v>
+      </c>
+      <c r="E777" t="n">
+        <v>0</v>
+      </c>
+      <c r="F777" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>53</v>
+      </c>
+      <c r="B778" s="1" t="n">
+        <v>0.5907435346180556</v>
+      </c>
+      <c r="C778" t="n">
+        <v>88</v>
+      </c>
+      <c r="D778" t="n">
+        <v>0</v>
+      </c>
+      <c r="E778" t="n">
+        <v>0</v>
+      </c>
+      <c r="F778" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>54</v>
+      </c>
+      <c r="B779" s="1" t="n">
+        <v>0.5914381531828704</v>
+      </c>
+      <c r="C779" t="n">
+        <v>88</v>
+      </c>
+      <c r="D779" t="n">
+        <v>0</v>
+      </c>
+      <c r="E779" t="n">
+        <v>0</v>
+      </c>
+      <c r="F779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>55</v>
+      </c>
+      <c r="B780" s="1" t="n">
+        <v>0.5921326558101853</v>
+      </c>
+      <c r="C780" t="n">
+        <v>88</v>
+      </c>
+      <c r="D780" t="n">
+        <v>0</v>
+      </c>
+      <c r="E780" t="n">
+        <v>0</v>
+      </c>
+      <c r="F780" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>56</v>
+      </c>
+      <c r="B781" s="1" t="n">
+        <v>0.5928260047800926</v>
+      </c>
+      <c r="C781" t="n">
+        <v>88</v>
+      </c>
+      <c r="D781" t="n">
+        <v>0</v>
+      </c>
+      <c r="E781" t="n">
+        <v>0</v>
+      </c>
+      <c r="F781" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>57</v>
+      </c>
+      <c r="B782" s="1" t="n">
+        <v>0.5935201146180555</v>
+      </c>
+      <c r="C782" t="n">
+        <v>88</v>
+      </c>
+      <c r="D782" t="n">
+        <v>0</v>
+      </c>
+      <c r="E782" t="n">
+        <v>0</v>
+      </c>
+      <c r="F782" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>58</v>
+      </c>
+      <c r="B783" s="1" t="n">
+        <v>0.5942140303356481</v>
+      </c>
+      <c r="C783" t="n">
+        <v>88</v>
+      </c>
+      <c r="D783" t="n">
+        <v>0</v>
+      </c>
+      <c r="E783" t="n">
+        <v>0</v>
+      </c>
+      <c r="F783" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>59</v>
+      </c>
+      <c r="B784" s="1" t="n">
+        <v>0.5949085098726852</v>
+      </c>
+      <c r="C784" t="n">
+        <v>88</v>
+      </c>
+      <c r="D784" t="n">
+        <v>0</v>
+      </c>
+      <c r="E784" t="n">
+        <v>0</v>
+      </c>
+      <c r="F784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>60</v>
+      </c>
+      <c r="B785" s="1" t="n">
+        <v>0.5956022732523149</v>
+      </c>
+      <c r="C785" t="n">
+        <v>88</v>
+      </c>
+      <c r="D785" t="n">
+        <v>0</v>
+      </c>
+      <c r="E785" t="n">
+        <v>0</v>
+      </c>
+      <c r="F785" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>61</v>
+      </c>
+      <c r="B786" s="1" t="n">
+        <v>0.5962974929513889</v>
+      </c>
+      <c r="C786" t="n">
+        <v>88</v>
+      </c>
+      <c r="D786" t="n">
+        <v>0</v>
+      </c>
+      <c r="E786" t="n">
+        <v>0</v>
+      </c>
+      <c r="F786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>62</v>
+      </c>
+      <c r="B787" s="1" t="n">
+        <v>0.5969921682407408</v>
+      </c>
+      <c r="C787" t="n">
+        <v>88</v>
+      </c>
+      <c r="D787" t="n">
+        <v>0</v>
+      </c>
+      <c r="E787" t="n">
+        <v>0</v>
+      </c>
+      <c r="F787" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>63</v>
+      </c>
+      <c r="B788" s="1" t="n">
+        <v>0.5976847435532407</v>
+      </c>
+      <c r="C788" t="n">
+        <v>88</v>
+      </c>
+      <c r="D788" t="n">
+        <v>0</v>
+      </c>
+      <c r="E788" t="n">
+        <v>0</v>
+      </c>
+      <c r="F788" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>64</v>
+      </c>
+      <c r="B789" s="1" t="n">
+        <v>0.5983787265856482</v>
+      </c>
+      <c r="C789" t="n">
+        <v>88</v>
+      </c>
+      <c r="D789" t="n">
+        <v>0</v>
+      </c>
+      <c r="E789" t="n">
+        <v>0</v>
+      </c>
+      <c r="F789" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>65</v>
+      </c>
+      <c r="B790" s="1" t="n">
+        <v>0.5990655523842592</v>
+      </c>
+      <c r="C790" t="n">
+        <v>88</v>
+      </c>
+      <c r="D790" t="n">
+        <v>0</v>
+      </c>
+      <c r="E790" t="n">
+        <v>0</v>
+      </c>
+      <c r="F790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>66</v>
+      </c>
+      <c r="B791" s="1" t="n">
+        <v>0.5997591663194445</v>
+      </c>
+      <c r="C791" t="n">
+        <v>88</v>
+      </c>
+      <c r="D791" t="n">
+        <v>0</v>
+      </c>
+      <c r="E791" t="n">
+        <v>0</v>
+      </c>
+      <c r="F791" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>67</v>
+      </c>
+      <c r="B792" s="1" t="n">
+        <v>0.6004536456365741</v>
+      </c>
+      <c r="C792" t="n">
+        <v>88</v>
+      </c>
+      <c r="D792" t="n">
+        <v>0</v>
+      </c>
+      <c r="E792" t="n">
+        <v>0</v>
+      </c>
+      <c r="F792" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>68</v>
+      </c>
+      <c r="B793" s="1" t="n">
+        <v>0.6011472822453704</v>
+      </c>
+      <c r="C793" t="n">
+        <v>88</v>
+      </c>
+      <c r="D793" t="n">
+        <v>0</v>
+      </c>
+      <c r="E793" t="n">
+        <v>0</v>
+      </c>
+      <c r="F793" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>69</v>
+      </c>
+      <c r="B794" s="1" t="n">
+        <v>0.6018414292129629</v>
+      </c>
+      <c r="C794" t="n">
+        <v>88</v>
+      </c>
+      <c r="D794" t="n">
+        <v>0</v>
+      </c>
+      <c r="E794" t="n">
+        <v>0</v>
+      </c>
+      <c r="F794" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>70</v>
+      </c>
+      <c r="B795" s="1" t="n">
+        <v>0.6025359192824075</v>
+      </c>
+      <c r="C795" t="n">
+        <v>88</v>
+      </c>
+      <c r="D795" t="n">
+        <v>0</v>
+      </c>
+      <c r="E795" t="n">
+        <v>0</v>
+      </c>
+      <c r="F795" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>71</v>
+      </c>
+      <c r="B796" s="1" t="n">
+        <v>0.6032304349421297</v>
+      </c>
+      <c r="C796" t="n">
+        <v>88</v>
+      </c>
+      <c r="D796" t="n">
+        <v>0</v>
+      </c>
+      <c r="E796" t="n">
+        <v>0</v>
+      </c>
+      <c r="F796" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>72</v>
+      </c>
+      <c r="B797" s="1" t="n">
+        <v>0.6039251099999999</v>
+      </c>
+      <c r="C797" t="n">
+        <v>88</v>
+      </c>
+      <c r="D797" t="n">
+        <v>0</v>
+      </c>
+      <c r="E797" t="n">
+        <v>0</v>
+      </c>
+      <c r="F797" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>73</v>
+      </c>
+      <c r="B798" s="1" t="n">
+        <v>0.6046177762268519</v>
+      </c>
+      <c r="C798" t="n">
+        <v>88</v>
+      </c>
+      <c r="D798" t="n">
+        <v>0</v>
+      </c>
+      <c r="E798" t="n">
+        <v>0</v>
+      </c>
+      <c r="F798" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>74</v>
+      </c>
+      <c r="B799" s="1" t="n">
+        <v>0.6053115971064815</v>
+      </c>
+      <c r="C799" t="n">
+        <v>88</v>
+      </c>
+      <c r="D799" t="n">
+        <v>0</v>
+      </c>
+      <c r="E799" t="n">
+        <v>0</v>
+      </c>
+      <c r="F799" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>75</v>
+      </c>
+      <c r="B800" s="1" t="n">
+        <v>0.606006329837963</v>
+      </c>
+      <c r="C800" t="n">
+        <v>88</v>
+      </c>
+      <c r="D800" t="n">
+        <v>0</v>
+      </c>
+      <c r="E800" t="n">
+        <v>0</v>
+      </c>
+      <c r="F800" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>76</v>
+      </c>
+      <c r="B801" s="1" t="n">
+        <v>0.6067013633333334</v>
+      </c>
+      <c r="C801" t="n">
+        <v>88</v>
+      </c>
+      <c r="D801" t="n">
+        <v>0</v>
+      </c>
+      <c r="E801" t="n">
+        <v>0</v>
+      </c>
+      <c r="F801" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>77</v>
+      </c>
+      <c r="B802" s="1" t="n">
+        <v>0.6073947454166666</v>
+      </c>
+      <c r="C802" t="n">
+        <v>88</v>
+      </c>
+      <c r="D802" t="n">
+        <v>0</v>
+      </c>
+      <c r="E802" t="n">
+        <v>0</v>
+      </c>
+      <c r="F802" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>78</v>
+      </c>
+      <c r="B803" s="1" t="n">
+        <v>0.6080886077083334</v>
+      </c>
+      <c r="C803" t="n">
+        <v>88</v>
+      </c>
+      <c r="D803" t="n">
+        <v>0</v>
+      </c>
+      <c r="E803" t="n">
+        <v>0</v>
+      </c>
+      <c r="F803" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>79</v>
+      </c>
+      <c r="B804" s="1" t="n">
+        <v>0.608783441724537</v>
+      </c>
+      <c r="C804" t="n">
+        <v>88</v>
+      </c>
+      <c r="D804" t="n">
+        <v>0</v>
+      </c>
+      <c r="E804" t="n">
+        <v>0</v>
+      </c>
+      <c r="F804" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>81</v>
+      </c>
+      <c r="B805" s="1" t="n">
+        <v>0.610171903125</v>
+      </c>
+      <c r="C805" t="n">
+        <v>88</v>
+      </c>
+      <c r="D805" t="n">
+        <v>0</v>
+      </c>
+      <c r="E805" t="n">
+        <v>0</v>
+      </c>
+      <c r="F805" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>82</v>
+      </c>
+      <c r="B806" s="1" t="n">
+        <v>0.6108656790856481</v>
+      </c>
+      <c r="C806" t="n">
+        <v>88</v>
+      </c>
+      <c r="D806" t="n">
+        <v>0</v>
+      </c>
+      <c r="E806" t="n">
+        <v>0</v>
+      </c>
+      <c r="F806" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>83</v>
+      </c>
+      <c r="B807" s="1" t="n">
+        <v>0.6115600446643518</v>
+      </c>
+      <c r="C807" t="n">
+        <v>88</v>
+      </c>
+      <c r="D807" t="n">
+        <v>0</v>
+      </c>
+      <c r="E807" t="n">
+        <v>0</v>
+      </c>
+      <c r="F807" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>84</v>
+      </c>
+      <c r="B808" s="1" t="n">
+        <v>0.6122543504861111</v>
+      </c>
+      <c r="C808" t="n">
+        <v>88</v>
+      </c>
+      <c r="D808" t="n">
+        <v>0</v>
+      </c>
+      <c r="E808" t="n">
+        <v>0</v>
+      </c>
+      <c r="F808" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>85</v>
+      </c>
+      <c r="B809" s="1" t="n">
+        <v>0.6129471780555555</v>
+      </c>
+      <c r="C809" t="n">
+        <v>88</v>
+      </c>
+      <c r="D809" t="n">
+        <v>0</v>
+      </c>
+      <c r="E809" t="n">
+        <v>0</v>
+      </c>
+      <c r="F809" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>86</v>
+      </c>
+      <c r="B810" s="1" t="n">
+        <v>0.6136413452199074</v>
+      </c>
+      <c r="C810" t="n">
+        <v>88</v>
+      </c>
+      <c r="D810" t="n">
+        <v>0</v>
+      </c>
+      <c r="E810" t="n">
+        <v>0</v>
+      </c>
+      <c r="F810" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>87</v>
+      </c>
+      <c r="B811" s="1" t="n">
+        <v>0.6143353847453704</v>
+      </c>
+      <c r="C811" t="n">
+        <v>88</v>
+      </c>
+      <c r="D811" t="n">
+        <v>0</v>
+      </c>
+      <c r="E811" t="n">
+        <v>0</v>
+      </c>
+      <c r="F811" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>88</v>
+      </c>
+      <c r="B812" s="1" t="n">
+        <v>0.6150304991782408</v>
+      </c>
+      <c r="C812" t="n">
+        <v>88</v>
+      </c>
+      <c r="D812" t="n">
+        <v>0</v>
+      </c>
+      <c r="E812" t="n">
+        <v>0</v>
+      </c>
+      <c r="F812" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>89</v>
+      </c>
+      <c r="B813" s="1" t="n">
+        <v>0.6157244928935185</v>
+      </c>
+      <c r="C813" t="n">
+        <v>88</v>
+      </c>
+      <c r="D813" t="n">
+        <v>0</v>
+      </c>
+      <c r="E813" t="n">
+        <v>0</v>
+      </c>
+      <c r="F813" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>90</v>
+      </c>
+      <c r="B814" s="1" t="n">
+        <v>0.6164176666087963</v>
+      </c>
+      <c r="C814" t="n">
+        <v>88</v>
+      </c>
+      <c r="D814" t="n">
+        <v>0</v>
+      </c>
+      <c r="E814" t="n">
+        <v>0</v>
+      </c>
+      <c r="F814" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>91</v>
+      </c>
+      <c r="B815" s="1" t="n">
+        <v>0.6171115089699074</v>
+      </c>
+      <c r="C815" t="n">
+        <v>88</v>
+      </c>
+      <c r="D815" t="n">
+        <v>0</v>
+      </c>
+      <c r="E815" t="n">
+        <v>0</v>
+      </c>
+      <c r="F815" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>92</v>
+      </c>
+      <c r="B816" s="1" t="n">
+        <v>0.6178065190856481</v>
+      </c>
+      <c r="C816" t="n">
+        <v>88</v>
+      </c>
+      <c r="D816" t="n">
+        <v>0</v>
+      </c>
+      <c r="E816" t="n">
+        <v>0</v>
+      </c>
+      <c r="F816" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>93</v>
+      </c>
+      <c r="B817" s="1" t="n">
+        <v>0.6185014019097222</v>
+      </c>
+      <c r="C817" t="n">
+        <v>88</v>
+      </c>
+      <c r="D817" t="n">
+        <v>0</v>
+      </c>
+      <c r="E817" t="n">
+        <v>0</v>
+      </c>
+      <c r="F817" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>94</v>
+      </c>
+      <c r="B818" s="1" t="n">
+        <v>0.6191947041203704</v>
+      </c>
+      <c r="C818" t="n">
+        <v>88</v>
+      </c>
+      <c r="D818" t="n">
+        <v>0</v>
+      </c>
+      <c r="E818" t="n">
+        <v>0</v>
+      </c>
+      <c r="F818" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>95</v>
+      </c>
+      <c r="B819" s="1" t="n">
+        <v>0.6198892417939815</v>
+      </c>
+      <c r="C819" t="n">
+        <v>88</v>
+      </c>
+      <c r="D819" t="n">
+        <v>0</v>
+      </c>
+      <c r="E819" t="n">
+        <v>0</v>
+      </c>
+      <c r="F819" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>96</v>
+      </c>
+      <c r="B820" s="1" t="n">
+        <v>0.6205826928009259</v>
+      </c>
+      <c r="C820" t="n">
+        <v>88</v>
+      </c>
+      <c r="D820" t="n">
+        <v>0</v>
+      </c>
+      <c r="E820" t="n">
+        <v>0</v>
+      </c>
+      <c r="F820" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>97</v>
+      </c>
+      <c r="B821" s="1" t="n">
+        <v>0.6212769329398148</v>
+      </c>
+      <c r="C821" t="n">
+        <v>88</v>
+      </c>
+      <c r="D821" t="n">
+        <v>0</v>
+      </c>
+      <c r="E821" t="n">
+        <v>0</v>
+      </c>
+      <c r="F821" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>98</v>
+      </c>
+      <c r="B822" s="1" t="n">
+        <v>0.6219714007870371</v>
+      </c>
+      <c r="C822" t="n">
+        <v>88</v>
+      </c>
+      <c r="D822" t="n">
+        <v>0</v>
+      </c>
+      <c r="E822" t="n">
+        <v>0</v>
+      </c>
+      <c r="F822" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>100</v>
+      </c>
+      <c r="B823" s="1" t="n">
+        <v>0.623358500451389</v>
+      </c>
+      <c r="C823" t="n">
+        <v>88</v>
+      </c>
+      <c r="D823" t="n">
+        <v>0</v>
+      </c>
+      <c r="E823" t="n">
+        <v>0</v>
+      </c>
+      <c r="F823" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>102</v>
+      </c>
+      <c r="B824" s="1" t="n">
+        <v>0.6247488430208333</v>
+      </c>
+      <c r="C824" t="n">
+        <v>88</v>
+      </c>
+      <c r="D824" t="n">
+        <v>0</v>
+      </c>
+      <c r="E824" t="n">
+        <v>0</v>
+      </c>
+      <c r="F824" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>103</v>
+      </c>
+      <c r="B825" s="1" t="n">
+        <v>0.6254422604513888</v>
+      </c>
+      <c r="C825" t="n">
+        <v>88</v>
+      </c>
+      <c r="D825" t="n">
+        <v>0</v>
+      </c>
+      <c r="E825" t="n">
+        <v>0</v>
+      </c>
+      <c r="F825" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>104</v>
+      </c>
+      <c r="B826" s="1" t="n">
+        <v>0.6261378014351852</v>
+      </c>
+      <c r="C826" t="n">
+        <v>88</v>
+      </c>
+      <c r="D826" t="n">
+        <v>0</v>
+      </c>
+      <c r="E826" t="n">
+        <v>0</v>
+      </c>
+      <c r="F826" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>105</v>
+      </c>
+      <c r="B827" s="1" t="n">
+        <v>0.6268299941203704</v>
+      </c>
+      <c r="C827" t="n">
+        <v>88</v>
+      </c>
+      <c r="D827" t="n">
+        <v>0</v>
+      </c>
+      <c r="E827" t="n">
+        <v>0</v>
+      </c>
+      <c r="F827" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>106</v>
+      </c>
+      <c r="B828" s="1" t="n">
+        <v>0.6275253380671296</v>
+      </c>
+      <c r="C828" t="n">
+        <v>88</v>
+      </c>
+      <c r="D828" t="n">
+        <v>0</v>
+      </c>
+      <c r="E828" t="n">
+        <v>0</v>
+      </c>
+      <c r="F828" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>107</v>
+      </c>
+      <c r="B829" s="1" t="n">
+        <v>0.6282193083796297</v>
+      </c>
+      <c r="C829" t="n">
+        <v>88</v>
+      </c>
+      <c r="D829" t="n">
+        <v>0</v>
+      </c>
+      <c r="E829" t="n">
+        <v>0</v>
+      </c>
+      <c r="F829" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>108</v>
+      </c>
+      <c r="B830" s="1" t="n">
+        <v>0.6289129901041667</v>
+      </c>
+      <c r="C830" t="n">
+        <v>88</v>
+      </c>
+      <c r="D830" t="n">
+        <v>0</v>
+      </c>
+      <c r="E830" t="n">
+        <v>0</v>
+      </c>
+      <c r="F830" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>109</v>
+      </c>
+      <c r="B831" s="1" t="n">
+        <v>0.6296074936111111</v>
+      </c>
+      <c r="C831" t="n">
+        <v>88</v>
+      </c>
+      <c r="D831" t="n">
+        <v>0</v>
+      </c>
+      <c r="E831" t="n">
+        <v>0</v>
+      </c>
+      <c r="F831" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>110</v>
+      </c>
+      <c r="B832" s="1" t="n">
+        <v>0.630302077337963</v>
+      </c>
+      <c r="C832" t="n">
+        <v>88</v>
+      </c>
+      <c r="D832" t="n">
+        <v>0</v>
+      </c>
+      <c r="E832" t="n">
+        <v>0</v>
+      </c>
+      <c r="F832" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>111</v>
+      </c>
+      <c r="B833" s="1" t="n">
+        <v>0.6309962108101852</v>
+      </c>
+      <c r="C833" t="n">
+        <v>88</v>
+      </c>
+      <c r="D833" t="n">
+        <v>0</v>
+      </c>
+      <c r="E833" t="n">
+        <v>0</v>
+      </c>
+      <c r="F833" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>112</v>
+      </c>
+      <c r="B834" s="1" t="n">
+        <v>0.6316891889930556</v>
+      </c>
+      <c r="C834" t="n">
+        <v>88</v>
+      </c>
+      <c r="D834" t="n">
+        <v>0</v>
+      </c>
+      <c r="E834" t="n">
+        <v>0</v>
+      </c>
+      <c r="F834" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>113</v>
+      </c>
+      <c r="B835" s="1" t="n">
+        <v>0.6323831591666667</v>
+      </c>
+      <c r="C835" t="n">
+        <v>88</v>
+      </c>
+      <c r="D835" t="n">
+        <v>0</v>
+      </c>
+      <c r="E835" t="n">
+        <v>0</v>
+      </c>
+      <c r="F835" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>114</v>
+      </c>
+      <c r="B836" s="1" t="n">
+        <v>0.6330775334143519</v>
+      </c>
+      <c r="C836" t="n">
+        <v>88</v>
+      </c>
+      <c r="D836" t="n">
+        <v>0</v>
+      </c>
+      <c r="E836" t="n">
+        <v>0</v>
+      </c>
+      <c r="F836" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>115</v>
+      </c>
+      <c r="B837" s="1" t="n">
+        <v>0.6337737656712963</v>
+      </c>
+      <c r="C837" t="n">
+        <v>88</v>
+      </c>
+      <c r="D837" t="n">
+        <v>0</v>
+      </c>
+      <c r="E837" t="n">
+        <v>0</v>
+      </c>
+      <c r="F837" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>116</v>
+      </c>
+      <c r="B838" s="1" t="n">
+        <v>0.6344651408564814</v>
+      </c>
+      <c r="C838" t="n">
+        <v>88</v>
+      </c>
+      <c r="D838" t="n">
+        <v>0</v>
+      </c>
+      <c r="E838" t="n">
+        <v>0</v>
+      </c>
+      <c r="F838" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>117</v>
+      </c>
+      <c r="B839" s="1" t="n">
+        <v>0.6351591463078704</v>
+      </c>
+      <c r="C839" t="n">
+        <v>88</v>
+      </c>
+      <c r="D839" t="n">
+        <v>0</v>
+      </c>
+      <c r="E839" t="n">
+        <v>0</v>
+      </c>
+      <c r="F839" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>118</v>
+      </c>
+      <c r="B840" s="1" t="n">
+        <v>0.6358535219560185</v>
+      </c>
+      <c r="C840" t="n">
+        <v>88</v>
+      </c>
+      <c r="D840" t="n">
+        <v>0</v>
+      </c>
+      <c r="E840" t="n">
+        <v>0</v>
+      </c>
+      <c r="F840" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>119</v>
+      </c>
+      <c r="B841" s="1" t="n">
+        <v>0.6365485096990741</v>
+      </c>
+      <c r="C841" t="n">
+        <v>88</v>
+      </c>
+      <c r="D841" t="n">
+        <v>0</v>
+      </c>
+      <c r="E841" t="n">
+        <v>0</v>
+      </c>
+      <c r="F841" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>120</v>
+      </c>
+      <c r="B842" s="1" t="n">
+        <v>0.6372427697685185</v>
+      </c>
+      <c r="C842" t="n">
+        <v>88</v>
+      </c>
+      <c r="D842" t="n">
+        <v>0</v>
+      </c>
+      <c r="E842" t="n">
+        <v>0</v>
+      </c>
+      <c r="F842" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>121</v>
+      </c>
+      <c r="B843" s="1" t="n">
+        <v>0.6379364864236111</v>
+      </c>
+      <c r="C843" t="n">
+        <v>88</v>
+      </c>
+      <c r="D843" t="n">
+        <v>0</v>
+      </c>
+      <c r="E843" t="n">
+        <v>0</v>
+      </c>
+      <c r="F843" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>122</v>
+      </c>
+      <c r="B844" s="1" t="n">
+        <v>0.6386302378009259</v>
+      </c>
+      <c r="C844" t="n">
+        <v>88</v>
+      </c>
+      <c r="D844" t="n">
+        <v>0</v>
+      </c>
+      <c r="E844" t="n">
+        <v>0</v>
+      </c>
+      <c r="F844" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>123</v>
+      </c>
+      <c r="B845" s="1" t="n">
+        <v>0.6393240134143519</v>
+      </c>
+      <c r="C845" t="n">
+        <v>88</v>
+      </c>
+      <c r="D845" t="n">
+        <v>0</v>
+      </c>
+      <c r="E845" t="n">
+        <v>0</v>
+      </c>
+      <c r="F845" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>124</v>
+      </c>
+      <c r="B846" s="1" t="n">
+        <v>0.6400187342476852</v>
+      </c>
+      <c r="C846" t="n">
+        <v>88</v>
+      </c>
+      <c r="D846" t="n">
+        <v>0</v>
+      </c>
+      <c r="E846" t="n">
+        <v>0</v>
+      </c>
+      <c r="F846" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>125</v>
+      </c>
+      <c r="B847" s="1" t="n">
+        <v>0.6407135011226852</v>
+      </c>
+      <c r="C847" t="n">
+        <v>88</v>
+      </c>
+      <c r="D847" t="n">
+        <v>0</v>
+      </c>
+      <c r="E847" t="n">
+        <v>0</v>
+      </c>
+      <c r="F847" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>126</v>
+      </c>
+      <c r="B848" s="1" t="n">
+        <v>0.6414075645370371</v>
+      </c>
+      <c r="C848" t="n">
+        <v>88</v>
+      </c>
+      <c r="D848" t="n">
+        <v>0</v>
+      </c>
+      <c r="E848" t="n">
+        <v>0</v>
+      </c>
+      <c r="F848" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>127</v>
+      </c>
+      <c r="B849" s="1" t="n">
+        <v>0.6421004384953704</v>
+      </c>
+      <c r="C849" t="n">
+        <v>88</v>
+      </c>
+      <c r="D849" t="n">
+        <v>0</v>
+      </c>
+      <c r="E849" t="n">
+        <v>0</v>
+      </c>
+      <c r="F849" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>128</v>
+      </c>
+      <c r="B850" s="1" t="n">
+        <v>0.6427947116550925</v>
+      </c>
+      <c r="C850" t="n">
+        <v>88</v>
+      </c>
+      <c r="D850" t="n">
+        <v>0</v>
+      </c>
+      <c r="E850" t="n">
+        <v>0</v>
+      </c>
+      <c r="F850" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>129</v>
+      </c>
+      <c r="B851" s="1" t="n">
+        <v>0.6434891433333334</v>
+      </c>
+      <c r="C851" t="n">
+        <v>88</v>
+      </c>
+      <c r="D851" t="n">
+        <v>0</v>
+      </c>
+      <c r="E851" t="n">
+        <v>0</v>
+      </c>
+      <c r="F851" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>0</v>
+      </c>
+      <c r="B852" s="1" t="n">
+        <v>0.6468075949768518</v>
+      </c>
+      <c r="C852" t="n">
+        <v>87</v>
+      </c>
+      <c r="D852" t="n">
+        <v>6.724</v>
+      </c>
+      <c r="E852" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F852" t="n">
+        <v>26.82876</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>1</v>
+      </c>
+      <c r="B853" s="1" t="n">
+        <v>0.6475017732638888</v>
+      </c>
+      <c r="C853" t="n">
+        <v>87</v>
+      </c>
+      <c r="D853" t="n">
+        <v>6.392</v>
+      </c>
+      <c r="E853" t="n">
+        <v>2.925</v>
+      </c>
+      <c r="F853" t="n">
+        <v>18.6966</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>2</v>
+      </c>
+      <c r="B854" s="1" t="n">
+        <v>0.6481961006134259</v>
+      </c>
+      <c r="C854" t="n">
+        <v>87</v>
+      </c>
+      <c r="D854" t="n">
+        <v>6.352</v>
+      </c>
+      <c r="E854" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F854" t="n">
+        <v>18.67488</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>3</v>
+      </c>
+      <c r="B855" s="1" t="n">
+        <v>0.6488911211921297</v>
+      </c>
+      <c r="C855" t="n">
+        <v>87</v>
+      </c>
+      <c r="D855" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E855" t="n">
+        <v>2.925</v>
+      </c>
+      <c r="F855" t="n">
+        <v>18.4275</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>4</v>
+      </c>
+      <c r="B856" s="1" t="n">
+        <v>0.6495837422337962</v>
+      </c>
+      <c r="C856" t="n">
+        <v>87</v>
+      </c>
+      <c r="D856" t="n">
+        <v>6.252</v>
+      </c>
+      <c r="E856" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F856" t="n">
+        <v>18.56844</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>5</v>
+      </c>
+      <c r="B857" s="1" t="n">
+        <v>0.6502779202546296</v>
+      </c>
+      <c r="C857" t="n">
+        <v>87</v>
+      </c>
+      <c r="D857" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="E857" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F857" t="n">
+        <v>18.46152</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>0</v>
+      </c>
+      <c r="B858" s="1" t="n">
+        <v>0.6522355583796295</v>
+      </c>
+      <c r="C858" t="n">
+        <v>87</v>
+      </c>
+      <c r="D858" t="n">
+        <v>6.584000000000001</v>
+      </c>
+      <c r="E858" t="n">
+        <v>3.225</v>
+      </c>
+      <c r="F858" t="n">
+        <v>21.2334</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>0</v>
+      </c>
+      <c r="B859" s="1" t="n">
+        <v>0.6567505856597222</v>
+      </c>
+      <c r="C859" t="n">
+        <v>87</v>
+      </c>
+      <c r="D859" t="n">
+        <v>6.524</v>
+      </c>
+      <c r="E859" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F859" t="n">
+        <v>0.09786</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>0</v>
+      </c>
+      <c r="B860" s="1" t="n">
+        <v>0.6574791968518519</v>
+      </c>
+      <c r="C860" t="n">
+        <v>88</v>
+      </c>
+      <c r="D860" t="n">
+        <v>6.352</v>
+      </c>
+      <c r="E860" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F860" t="n">
+        <v>0.09528</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>0</v>
+      </c>
+      <c r="B861" s="1" t="n">
+        <v>0.6652058569675926</v>
+      </c>
+      <c r="C861" t="n">
+        <v>87</v>
+      </c>
+      <c r="D861" t="n">
+        <v>6.348</v>
+      </c>
+      <c r="E861" t="n">
+        <v>0</v>
+      </c>
+      <c r="F861" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>0</v>
+      </c>
+      <c r="B862" s="1" t="n">
+        <v>0.665934515763889</v>
+      </c>
+      <c r="C862" t="n">
+        <v>87</v>
+      </c>
+      <c r="D862" t="n">
+        <v>3.076</v>
+      </c>
+      <c r="E862" t="n">
+        <v>0</v>
+      </c>
+      <c r="F862" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>1</v>
+      </c>
+      <c r="B863" s="1" t="n">
+        <v>0.67275969875</v>
+      </c>
+      <c r="C863" t="n">
+        <v>87</v>
+      </c>
+      <c r="D863" t="n">
+        <v>0</v>
+      </c>
+      <c r="E863" t="n">
+        <v>0</v>
+      </c>
+      <c r="F863" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>0</v>
+      </c>
+      <c r="B864" s="1" t="n">
+        <v>0.6784398930324074</v>
+      </c>
+      <c r="C864" t="n">
+        <v>87</v>
+      </c>
+      <c r="D864" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="E864" t="n">
+        <v>11.085</v>
+      </c>
+      <c r="F864" t="n">
+        <v>20.75112</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>0</v>
+      </c>
+      <c r="B865" s="1" t="n">
+        <v>0.685166389849537</v>
+      </c>
+      <c r="C865" t="n">
+        <v>87</v>
+      </c>
+      <c r="D865" t="n">
+        <v>1.236</v>
+      </c>
+      <c r="E865" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F865" t="n">
+        <v>5.52492</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>0</v>
+      </c>
+      <c r="B866" s="1" t="n">
+        <v>0.6876557786226852</v>
+      </c>
+      <c r="C866" t="n">
+        <v>87</v>
+      </c>
+      <c r="D866" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="E866" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="F866" t="n">
+        <v>24.4494</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>0</v>
+      </c>
+      <c r="B867" s="1" t="n">
+        <v>0.6876853291550926</v>
+      </c>
+      <c r="C867" t="n">
+        <v>87</v>
+      </c>
+      <c r="D867" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="E867" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="F867" t="n">
+        <v>24.4494</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>0</v>
+      </c>
+      <c r="B868" s="1" t="n">
+        <v>0.6941340668981482</v>
+      </c>
+      <c r="C868" t="n">
+        <v>87</v>
+      </c>
+      <c r="D868" t="n">
+        <v>4.308</v>
+      </c>
+      <c r="E868" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="F868" t="n">
+        <v>46.39716</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>0</v>
+      </c>
+      <c r="B869" s="1" t="n">
+        <v>0.6953101762731481</v>
+      </c>
+      <c r="C869" t="n">
+        <v>87</v>
+      </c>
+      <c r="D869" t="n">
+        <v>6.388</v>
+      </c>
+      <c r="E869" t="n">
+        <v>1.965</v>
+      </c>
+      <c r="F869" t="n">
+        <v>12.55242</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>0</v>
+      </c>
+      <c r="B870" s="1" t="n">
+        <v>0.6967675565856482</v>
+      </c>
+      <c r="C870" t="n">
+        <v>87</v>
+      </c>
+      <c r="D870" t="n">
+        <v>6.212</v>
+      </c>
+      <c r="E870" t="n">
+        <v>2.145</v>
+      </c>
+      <c r="F870" t="n">
+        <v>13.32474</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>0</v>
+      </c>
+      <c r="B871" s="1" t="n">
+        <v>0.6974974070370371</v>
+      </c>
+      <c r="C871" t="n">
+        <v>87</v>
+      </c>
+      <c r="D871" t="n">
+        <v>1.548</v>
+      </c>
+      <c r="E871" t="n">
+        <v>12.465</v>
+      </c>
+      <c r="F871" t="n">
+        <v>19.29582</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>0</v>
+      </c>
+      <c r="B872" s="1" t="n">
+        <v>0.6982252728587963</v>
+      </c>
+      <c r="C872" t="n">
+        <v>87</v>
+      </c>
+      <c r="D872" t="n">
+        <v>2.024</v>
+      </c>
+      <c r="E872" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="F872" t="n">
+        <v>41.65392</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>0</v>
+      </c>
+      <c r="B873" s="1" t="n">
+        <v>0.6995067576157408</v>
+      </c>
+      <c r="C873" t="n">
+        <v>87</v>
+      </c>
+      <c r="D873" t="n">
+        <v>2.296</v>
+      </c>
+      <c r="E873" t="n">
+        <v>23.505</v>
+      </c>
+      <c r="F873" t="n">
+        <v>53.96748000000001</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>5</v>
+      </c>
+      <c r="B874" s="1" t="n">
+        <v>0.7207169982523148</v>
+      </c>
+      <c r="C874" t="n">
+        <v>87</v>
+      </c>
+      <c r="D874" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="E874" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="F874" t="n">
+        <v>26.42976</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>6</v>
+      </c>
+      <c r="B875" s="1" t="n">
+        <v>0.7214114800694444</v>
+      </c>
+      <c r="C875" t="n">
+        <v>87</v>
+      </c>
+      <c r="D875" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="E875" t="n">
+        <v>12.255</v>
+      </c>
+      <c r="F875" t="n">
+        <v>26.76492</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>7</v>
+      </c>
+      <c r="B876" s="1" t="n">
+        <v>0.7221055135416666</v>
+      </c>
+      <c r="C876" t="n">
+        <v>87</v>
+      </c>
+      <c r="D876" t="n">
+        <v>1.988</v>
+      </c>
+      <c r="E876" t="n">
+        <v>12.705</v>
+      </c>
+      <c r="F876" t="n">
+        <v>25.25754</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>8</v>
+      </c>
+      <c r="B877" s="1" t="n">
+        <v>0.7227989630787037</v>
+      </c>
+      <c r="C877" t="n">
+        <v>87</v>
+      </c>
+      <c r="D877" t="n">
+        <v>1.956</v>
+      </c>
+      <c r="E877" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="F877" t="n">
+        <v>25.34976</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>9</v>
+      </c>
+      <c r="B878" s="1" t="n">
+        <v>0.7234931084027778</v>
+      </c>
+      <c r="C878" t="n">
+        <v>87</v>
+      </c>
+      <c r="D878" t="n">
+        <v>2</v>
+      </c>
+      <c r="E878" t="n">
+        <v>12.465</v>
+      </c>
+      <c r="F878" t="n">
+        <v>24.93</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>10</v>
+      </c>
+      <c r="B879" s="1" t="n">
+        <v>0.7241870527893518</v>
+      </c>
+      <c r="C879" t="n">
+        <v>87</v>
+      </c>
+      <c r="D879" t="n">
+        <v>2.164</v>
+      </c>
+      <c r="E879" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="F879" t="n">
+        <v>26.87688</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>13</v>
+      </c>
+      <c r="B880" s="1" t="n">
+        <v>0.7262702976041666</v>
+      </c>
+      <c r="C880" t="n">
+        <v>87</v>
+      </c>
+      <c r="D880" t="n">
+        <v>2.228</v>
+      </c>
+      <c r="E880" t="n">
+        <v>12.015</v>
+      </c>
+      <c r="F880" t="n">
+        <v>26.76942</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>14</v>
+      </c>
+      <c r="B881" s="1" t="n">
+        <v>0.7269641426157407</v>
+      </c>
+      <c r="C881" t="n">
+        <v>87</v>
+      </c>
+      <c r="D881" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E881" t="n">
+        <v>11.625</v>
+      </c>
+      <c r="F881" t="n">
+        <v>26.7375</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>15</v>
+      </c>
+      <c r="B882" s="1" t="n">
+        <v>0.7276582412615741</v>
+      </c>
+      <c r="C882" t="n">
+        <v>87</v>
+      </c>
+      <c r="D882" t="n">
+        <v>2.212</v>
+      </c>
+      <c r="E882" t="n">
+        <v>12.075</v>
+      </c>
+      <c r="F882" t="n">
+        <v>26.7099</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>16</v>
+      </c>
+      <c r="B883" s="1" t="n">
+        <v>0.7283527787962963</v>
+      </c>
+      <c r="C883" t="n">
+        <v>87</v>
+      </c>
+      <c r="D883" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="E883" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="F883" t="n">
+        <v>26.11884</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>17</v>
+      </c>
+      <c r="B884" s="1" t="n">
+        <v>0.7290466743518518</v>
+      </c>
+      <c r="C884" t="n">
+        <v>87</v>
+      </c>
+      <c r="D884" t="n">
+        <v>2.108</v>
+      </c>
+      <c r="E884" t="n">
+        <v>14.115</v>
+      </c>
+      <c r="F884" t="n">
+        <v>29.75442</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>19</v>
+      </c>
+      <c r="B885" s="1" t="n">
+        <v>0.7304345254398148</v>
+      </c>
+      <c r="C885" t="n">
+        <v>87</v>
+      </c>
+      <c r="D885" t="n">
+        <v>2.064</v>
+      </c>
+      <c r="E885" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="F885" t="n">
+        <v>27.49248</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>20</v>
+      </c>
+      <c r="B886" s="1" t="n">
+        <v>0.7311278316435185</v>
+      </c>
+      <c r="C886" t="n">
+        <v>87</v>
+      </c>
+      <c r="D886" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="E886" t="n">
+        <v>11.805</v>
+      </c>
+      <c r="F886" t="n">
+        <v>26.2071</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>21</v>
+      </c>
+      <c r="B887" s="1" t="n">
+        <v>0.731822995162037</v>
+      </c>
+      <c r="C887" t="n">
+        <v>87</v>
+      </c>
+      <c r="D887" t="n">
+        <v>1.084</v>
+      </c>
+      <c r="E887" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="F887" t="n">
+        <v>11.28444</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>22</v>
+      </c>
+      <c r="B888" s="1" t="n">
+        <v>0.7325166798032408</v>
+      </c>
+      <c r="C888" t="n">
+        <v>87</v>
+      </c>
+      <c r="D888" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="E888" t="n">
+        <v>9.959999999999999</v>
+      </c>
+      <c r="F888" t="n">
+        <v>6.533759999999999</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>23</v>
+      </c>
+      <c r="B889" s="1" t="n">
+        <v>0.7332112805787037</v>
+      </c>
+      <c r="C889" t="n">
+        <v>87</v>
+      </c>
+      <c r="D889" t="n">
+        <v>2.012</v>
+      </c>
+      <c r="E889" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="F889" t="n">
+        <v>23.35932</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>24</v>
+      </c>
+      <c r="B890" s="1" t="n">
+        <v>0.7339065533680555</v>
+      </c>
+      <c r="C890" t="n">
+        <v>87</v>
+      </c>
+      <c r="D890" t="n">
+        <v>2.064</v>
+      </c>
+      <c r="E890" t="n">
+        <v>13.485</v>
+      </c>
+      <c r="F890" t="n">
+        <v>27.83304</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>25</v>
+      </c>
+      <c r="B891" s="1" t="n">
+        <v>0.7346006669328704</v>
+      </c>
+      <c r="C891" t="n">
+        <v>87</v>
+      </c>
+      <c r="D891" t="n">
+        <v>2.084</v>
+      </c>
+      <c r="E891" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="F891" t="n">
+        <v>25.9458</v>
       </c>
     </row>
   </sheetData>
